--- a/总表.xlsx
+++ b/总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="29360" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385">
   <si>
     <t xml:space="preserve">Percent in </t>
   </si>
@@ -1176,11 +1176,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1199,21 +1199,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,6 +1224,14 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1243,46 +1252,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1299,14 +1269,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1314,7 +1276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,6 +1291,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1336,7 +1313,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1351,25 +1351,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,25 +1393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,61 +1411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,7 +1435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,7 +1459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,25 +1471,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,17 +1545,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1571,24 +1583,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1625,15 +1619,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1642,151 +1627,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1804,11 +1804,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,54 +1816,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2130,38 +2130,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Z481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z1" sqref="Z$1:Z$1048576"/>
+      <selection pane="bottomLeft" activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
     <col min="3" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8787878787879" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.87878787878788" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.87878787878788" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.12878787878788" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.62878787878788" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.87878787878788" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="1" customWidth="1"/>
     <col min="14" max="15" width="11" style="1"/>
-    <col min="16" max="16" width="12.6363636363636" style="2"/>
+    <col min="16" max="16" width="12.6333333333333" style="2"/>
     <col min="17" max="17" width="11" style="1"/>
-    <col min="18" max="18" width="12.6363636363636" style="2"/>
-    <col min="19" max="19" width="12.4545454545455" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.4545454545455" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.3636363636364" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.6333333333333" style="2"/>
+    <col min="19" max="19" width="12.4583333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.4583333333333" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.3666666666667" style="4" customWidth="1"/>
     <col min="23" max="24" width="11" style="1"/>
-    <col min="25" max="25" width="12.469696969697" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.2045454545455" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.4666666666667" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.2083333333333" style="2" customWidth="1"/>
     <col min="27" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="31.2" spans="2:26">
+    <row r="2" ht="40" spans="2:26">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2180,10 +2180,10 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2204,7 +2204,7 @@
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -2242,7 +2242,7 @@
       </c>
     </row>
     <row r="3" spans="2:26">
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>44926</v>
       </c>
       <c r="C3" s="1">
@@ -2251,10 +2251,10 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>20380</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>1899</v>
       </c>
       <c r="G3" s="1">
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="4" spans="2:26">
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>44925</v>
       </c>
       <c r="C4" s="1">
@@ -2332,10 +2332,10 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>21204</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>1973</v>
       </c>
       <c r="G4" s="1">
@@ -2404,7 +2404,7 @@
       </c>
     </row>
     <row r="5" spans="2:26">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>44924</v>
       </c>
       <c r="C5" s="1">
@@ -2413,10 +2413,10 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>20001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>1919</v>
       </c>
       <c r="G5" s="1">
@@ -2485,7 +2485,7 @@
       </c>
     </row>
     <row r="6" spans="2:26">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>44923</v>
       </c>
       <c r="C6" s="1">
@@ -2494,10 +2494,10 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>20160</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>1937</v>
       </c>
       <c r="G6" s="1">
@@ -2566,7 +2566,7 @@
       </c>
     </row>
     <row r="7" spans="2:26">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>44922</v>
       </c>
       <c r="C7" s="1">
@@ -2575,10 +2575,10 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>20879</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>2012</v>
       </c>
       <c r="G7" s="1">
@@ -2647,7 +2647,7 @@
       </c>
     </row>
     <row r="8" spans="2:26">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>44921</v>
       </c>
       <c r="C8" s="1">
@@ -2656,10 +2656,10 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>20011</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>2043</v>
       </c>
       <c r="G8" s="1">
@@ -2728,7 +2728,7 @@
       </c>
     </row>
     <row r="9" spans="2:26">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>44920</v>
       </c>
       <c r="C9" s="1">
@@ -2737,10 +2737,10 @@
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>15554</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>1562</v>
       </c>
       <c r="G9" s="1">
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="10" spans="2:26">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>44919</v>
       </c>
       <c r="C10" s="1">
@@ -2818,10 +2818,10 @@
       <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>20281</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>1911</v>
       </c>
       <c r="G10" s="1">
@@ -2890,7 +2890,7 @@
       </c>
     </row>
     <row r="11" spans="2:26">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>44918</v>
       </c>
       <c r="C11" s="1">
@@ -2899,10 +2899,10 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>21937</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>2112</v>
       </c>
       <c r="G11" s="1">
@@ -2971,7 +2971,7 @@
       </c>
     </row>
     <row r="12" spans="2:26">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>44917</v>
       </c>
       <c r="C12" s="1">
@@ -2980,10 +2980,10 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>20490</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>2034</v>
       </c>
       <c r="G12" s="1">
@@ -3052,7 +3052,7 @@
       </c>
     </row>
     <row r="13" spans="2:26">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>44916</v>
       </c>
       <c r="C13" s="1">
@@ -3061,10 +3061,10 @@
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>22180</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>2036</v>
       </c>
       <c r="G13" s="1">
@@ -3133,7 +3133,7 @@
       </c>
     </row>
     <row r="14" spans="2:26">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>44915</v>
       </c>
       <c r="C14" s="1">
@@ -3214,7 +3214,7 @@
       </c>
     </row>
     <row r="15" spans="2:26">
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>44914</v>
       </c>
       <c r="C15" s="1">
@@ -3223,10 +3223,10 @@
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>26010</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>2422</v>
       </c>
       <c r="G15" s="1">
@@ -3295,7 +3295,7 @@
       </c>
     </row>
     <row r="16" spans="2:26">
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>44913</v>
       </c>
       <c r="C16" s="1">
@@ -3304,10 +3304,10 @@
       <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>22166</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>2108</v>
       </c>
       <c r="G16" s="1">
@@ -3376,7 +3376,7 @@
       </c>
     </row>
     <row r="17" spans="2:26">
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>44912</v>
       </c>
       <c r="C17" s="1">
@@ -3385,10 +3385,10 @@
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>22336</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>2088</v>
       </c>
       <c r="G17" s="1">
@@ -3457,7 +3457,7 @@
       </c>
     </row>
     <row r="18" spans="2:26">
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>44911</v>
       </c>
       <c r="C18" s="1">
@@ -3466,10 +3466,10 @@
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>22853</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>2160</v>
       </c>
       <c r="G18" s="1">
@@ -3538,7 +3538,7 @@
       </c>
     </row>
     <row r="19" spans="2:26">
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>44910</v>
       </c>
       <c r="C19" s="1">
@@ -3547,10 +3547,10 @@
       <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>22176</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>2127</v>
       </c>
       <c r="G19" s="1">
@@ -3619,7 +3619,7 @@
       </c>
     </row>
     <row r="20" spans="2:26">
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>44909</v>
       </c>
       <c r="C20" s="1">
@@ -3628,10 +3628,10 @@
       <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>20824</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <v>2048</v>
       </c>
       <c r="G20" s="1">
@@ -3700,7 +3700,7 @@
       </c>
     </row>
     <row r="21" spans="2:26">
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>44908</v>
       </c>
       <c r="C21" s="1">
@@ -3709,10 +3709,10 @@
       <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>24101</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <v>2224</v>
       </c>
       <c r="G21" s="1">
@@ -3781,7 +3781,7 @@
       </c>
     </row>
     <row r="22" spans="2:26">
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>44907</v>
       </c>
       <c r="C22" s="1">
@@ -3790,10 +3790,10 @@
       <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>22873</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>2150</v>
       </c>
       <c r="G22" s="1">
@@ -3862,7 +3862,7 @@
       </c>
     </row>
     <row r="23" spans="2:26">
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>44906</v>
       </c>
       <c r="C23" s="1">
@@ -3871,10 +3871,10 @@
       <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>21947</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <v>2075</v>
       </c>
       <c r="G23" s="1">
@@ -3943,7 +3943,7 @@
       </c>
     </row>
     <row r="24" spans="2:26">
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>44905</v>
       </c>
       <c r="C24" s="1">
@@ -3952,10 +3952,10 @@
       <c r="D24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>21157</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>2041</v>
       </c>
       <c r="G24" s="1">
@@ -4024,7 +4024,7 @@
       </c>
     </row>
     <row r="25" spans="2:26">
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>44904</v>
       </c>
       <c r="C25" s="1">
@@ -4033,10 +4033,10 @@
       <c r="D25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <v>23640</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="6">
         <v>2165</v>
       </c>
       <c r="G25" s="1">
@@ -4105,7 +4105,7 @@
       </c>
     </row>
     <row r="26" spans="2:26">
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>44903</v>
       </c>
       <c r="C26" s="1">
@@ -4114,10 +4114,10 @@
       <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="6">
         <v>21199</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <v>1863</v>
       </c>
       <c r="G26" s="1">
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="27" spans="2:26">
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>44902</v>
       </c>
       <c r="C27" s="1">
@@ -4195,10 +4195,10 @@
       <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="6">
         <v>24899</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="6">
         <v>2388</v>
       </c>
       <c r="G27" s="1">
@@ -4267,7 +4267,7 @@
       </c>
     </row>
     <row r="28" spans="2:26">
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>44901</v>
       </c>
       <c r="C28" s="1">
@@ -4276,10 +4276,10 @@
       <c r="D28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="6">
         <v>23509</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="6">
         <v>2261</v>
       </c>
       <c r="G28" s="1">
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="29" spans="2:26">
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>44900</v>
       </c>
       <c r="C29" s="1">
@@ -4357,10 +4357,10 @@
       <c r="D29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="6">
         <v>23153</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="6">
         <v>2200</v>
       </c>
       <c r="G29" s="1">
@@ -4429,7 +4429,7 @@
       </c>
     </row>
     <row r="30" spans="2:26">
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>44899</v>
       </c>
       <c r="C30" s="1">
@@ -4438,10 +4438,10 @@
       <c r="D30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="6">
         <v>25577</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="6">
         <v>2398</v>
       </c>
       <c r="G30" s="1">
@@ -4510,7 +4510,7 @@
       </c>
     </row>
     <row r="31" spans="2:26">
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>44898</v>
       </c>
       <c r="C31" s="1">
@@ -4519,10 +4519,10 @@
       <c r="D31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <v>23873</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="6">
         <v>2260</v>
       </c>
       <c r="G31" s="1">
@@ -4591,7 +4591,7 @@
       </c>
     </row>
     <row r="32" spans="2:26">
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>44897</v>
       </c>
       <c r="C32" s="1">
@@ -4600,10 +4600,10 @@
       <c r="D32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="6">
         <v>24646</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="6">
         <v>2343</v>
       </c>
       <c r="G32" s="1">
@@ -4672,7 +4672,7 @@
       </c>
     </row>
     <row r="33" spans="2:26">
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>44896</v>
       </c>
       <c r="C33" s="1">
@@ -4681,10 +4681,10 @@
       <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="6">
         <v>22628</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="6">
         <v>2200</v>
       </c>
       <c r="G33" s="1">
@@ -4753,7 +4753,7 @@
       </c>
     </row>
     <row r="34" spans="2:26">
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>44895</v>
       </c>
       <c r="C34" s="1">
@@ -4762,10 +4762,10 @@
       <c r="D34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="6">
         <v>25569</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="6">
         <v>2405</v>
       </c>
       <c r="G34" s="1">
@@ -4834,7 +4834,7 @@
       </c>
     </row>
     <row r="35" spans="2:26">
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>44894</v>
       </c>
       <c r="C35" s="1">
@@ -4843,10 +4843,10 @@
       <c r="D35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="6">
         <v>23739</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="6">
         <v>2316</v>
       </c>
       <c r="G35" s="1">
@@ -4915,7 +4915,7 @@
       </c>
     </row>
     <row r="36" spans="2:26">
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>44893</v>
       </c>
       <c r="C36" s="1">
@@ -4924,10 +4924,10 @@
       <c r="D36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="6">
         <v>26051</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="6">
         <v>2484</v>
       </c>
       <c r="G36" s="1">
@@ -4996,7 +4996,7 @@
       </c>
     </row>
     <row r="37" spans="2:26">
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>44892</v>
       </c>
       <c r="C37" s="1">
@@ -5005,10 +5005,10 @@
       <c r="D37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="6">
         <v>25206</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="6">
         <v>2356</v>
       </c>
       <c r="G37" s="1">
@@ -5077,7 +5077,7 @@
       </c>
     </row>
     <row r="38" spans="2:26">
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>44891</v>
       </c>
       <c r="C38" s="1">
@@ -5086,10 +5086,10 @@
       <c r="D38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="6">
         <v>26381</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="6">
         <v>2424</v>
       </c>
       <c r="G38" s="1">
@@ -5158,7 +5158,7 @@
       </c>
     </row>
     <row r="39" spans="2:26">
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>44890</v>
       </c>
       <c r="C39" s="1">
@@ -5167,10 +5167,10 @@
       <c r="D39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="6">
         <v>24197</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="6">
         <v>2329</v>
       </c>
       <c r="G39" s="1">
@@ -5239,7 +5239,7 @@
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>44889</v>
       </c>
       <c r="C40" s="1">
@@ -5248,10 +5248,10 @@
       <c r="D40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="6">
         <v>27705</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="6">
         <v>2725</v>
       </c>
       <c r="G40" s="1">
@@ -5320,7 +5320,7 @@
       </c>
     </row>
     <row r="41" spans="2:26">
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>44888</v>
       </c>
       <c r="C41" s="1">
@@ -5329,10 +5329,10 @@
       <c r="D41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="6">
         <v>26663</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="6">
         <v>2451</v>
       </c>
       <c r="G41" s="1">
@@ -5401,7 +5401,7 @@
       </c>
     </row>
     <row r="42" spans="2:26">
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>44887</v>
       </c>
       <c r="C42" s="1">
@@ -5410,10 +5410,10 @@
       <c r="D42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="6">
         <v>27437</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="6">
         <v>2534</v>
       </c>
       <c r="G42" s="1">
@@ -5482,7 +5482,7 @@
       </c>
     </row>
     <row r="43" spans="2:26">
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>44886</v>
       </c>
       <c r="C43" s="1">
@@ -5491,10 +5491,10 @@
       <c r="D43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="6">
         <v>24288</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="6">
         <v>2382</v>
       </c>
       <c r="G43" s="1">
@@ -5563,7 +5563,7 @@
       </c>
     </row>
     <row r="44" spans="2:26">
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>44885</v>
       </c>
       <c r="C44" s="1">
@@ -5572,10 +5572,10 @@
       <c r="D44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="6">
         <v>24991</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="6">
         <v>2396</v>
       </c>
       <c r="G44" s="1">
@@ -5644,7 +5644,7 @@
       </c>
     </row>
     <row r="45" spans="2:26">
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>44884</v>
       </c>
       <c r="C45" s="1">
@@ -5653,10 +5653,10 @@
       <c r="D45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="6">
         <v>24749</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="6">
         <v>2400</v>
       </c>
       <c r="G45" s="1">
@@ -5725,7 +5725,7 @@
       </c>
     </row>
     <row r="46" spans="2:26">
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>44883</v>
       </c>
       <c r="C46" s="1">
@@ -5734,10 +5734,10 @@
       <c r="D46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="6">
         <v>29208</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="6">
         <v>2899</v>
       </c>
       <c r="G46" s="1">
@@ -5806,7 +5806,7 @@
       </c>
     </row>
     <row r="47" spans="2:26">
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>44882</v>
       </c>
       <c r="C47" s="1">
@@ -5815,10 +5815,10 @@
       <c r="D47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="6">
         <v>27465</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="6">
         <v>2530</v>
       </c>
       <c r="G47" s="1">
@@ -5887,7 +5887,7 @@
       </c>
     </row>
     <row r="48" spans="2:26">
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>44881</v>
       </c>
       <c r="C48" s="1">
@@ -5896,10 +5896,10 @@
       <c r="D48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="6">
         <v>25576</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="6">
         <v>2541</v>
       </c>
       <c r="G48" s="1">
@@ -5968,7 +5968,7 @@
       </c>
     </row>
     <row r="49" spans="2:26">
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>44880</v>
       </c>
       <c r="C49" s="1">
@@ -5977,10 +5977,10 @@
       <c r="D49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="6">
         <v>27475</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="6">
         <v>2650</v>
       </c>
       <c r="G49" s="1">
@@ -6049,7 +6049,7 @@
       </c>
     </row>
     <row r="50" spans="2:26">
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>44879</v>
       </c>
       <c r="C50" s="1">
@@ -6058,10 +6058,10 @@
       <c r="D50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="6">
         <v>26536</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="6">
         <v>2467</v>
       </c>
       <c r="G50" s="1">
@@ -6130,7 +6130,7 @@
       </c>
     </row>
     <row r="51" spans="2:26">
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>44878</v>
       </c>
       <c r="C51" s="1">
@@ -6139,10 +6139,10 @@
       <c r="D51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="6">
         <v>25085</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="6">
         <v>2515</v>
       </c>
       <c r="G51" s="1">
@@ -6211,7 +6211,7 @@
       </c>
     </row>
     <row r="52" spans="2:26">
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>44877</v>
       </c>
       <c r="C52" s="1">
@@ -6220,10 +6220,10 @@
       <c r="D52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="6">
         <v>24660</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="6">
         <v>2356</v>
       </c>
       <c r="G52" s="1">
@@ -6292,7 +6292,7 @@
       </c>
     </row>
     <row r="53" spans="2:26">
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>44876</v>
       </c>
       <c r="C53" s="1">
@@ -6301,10 +6301,10 @@
       <c r="D53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="6">
         <v>25993</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="6">
         <v>2438</v>
       </c>
       <c r="G53" s="1">
@@ -6373,7 +6373,7 @@
       </c>
     </row>
     <row r="54" spans="2:26">
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>44875</v>
       </c>
       <c r="C54" s="1">
@@ -6382,10 +6382,10 @@
       <c r="D54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="6">
         <v>27467</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="6">
         <v>2575</v>
       </c>
       <c r="G54" s="1">
@@ -6454,7 +6454,7 @@
       </c>
     </row>
     <row r="55" spans="2:26">
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>44874</v>
       </c>
       <c r="C55" s="1">
@@ -6463,10 +6463,10 @@
       <c r="D55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="6">
         <v>28984</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="6">
         <v>2678</v>
       </c>
       <c r="G55" s="1">
@@ -6535,7 +6535,7 @@
       </c>
     </row>
     <row r="56" spans="2:26">
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>44873</v>
       </c>
       <c r="C56" s="1">
@@ -6544,10 +6544,10 @@
       <c r="D56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="6">
         <v>27213</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="6">
         <v>2531</v>
       </c>
       <c r="G56" s="1">
@@ -6616,7 +6616,7 @@
       </c>
     </row>
     <row r="57" spans="2:26">
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>44872</v>
       </c>
       <c r="C57" s="1">
@@ -6625,10 +6625,10 @@
       <c r="D57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="6">
         <v>26096</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="6">
         <v>2439</v>
       </c>
       <c r="G57" s="1">
@@ -6697,7 +6697,7 @@
       </c>
     </row>
     <row r="58" spans="2:26">
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>44871</v>
       </c>
       <c r="C58" s="1">
@@ -6706,10 +6706,10 @@
       <c r="D58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="6">
         <v>31068</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="6">
         <v>3013</v>
       </c>
       <c r="G58" s="1">
@@ -6778,7 +6778,7 @@
       </c>
     </row>
     <row r="59" spans="2:26">
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>44870</v>
       </c>
       <c r="C59" s="1">
@@ -6787,10 +6787,10 @@
       <c r="D59" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="6">
         <v>29743</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="6">
         <v>2751</v>
       </c>
       <c r="G59" s="1">
@@ -6859,7 +6859,7 @@
       </c>
     </row>
     <row r="60" spans="2:26">
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>44869</v>
       </c>
       <c r="C60" s="1">
@@ -6868,10 +6868,10 @@
       <c r="D60" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="6">
         <v>27330</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="6">
         <v>2565</v>
       </c>
       <c r="G60" s="1">
@@ -6940,7 +6940,7 @@
       </c>
     </row>
     <row r="61" spans="2:26">
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>44868</v>
       </c>
       <c r="C61" s="1">
@@ -6949,10 +6949,10 @@
       <c r="D61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="6">
         <v>29554</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="6">
         <v>2819</v>
       </c>
       <c r="G61" s="1">
@@ -7021,7 +7021,7 @@
       </c>
     </row>
     <row r="62" spans="2:26">
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>44867</v>
       </c>
       <c r="C62" s="1">
@@ -7030,10 +7030,10 @@
       <c r="D62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="6">
         <v>27670</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="6">
         <v>2640</v>
       </c>
       <c r="G62" s="1">
@@ -7102,7 +7102,7 @@
       </c>
     </row>
     <row r="63" spans="2:26">
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>44866</v>
       </c>
       <c r="C63" s="1">
@@ -7111,11 +7111,11 @@
       <c r="D63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="6">
         <v>27502</v>
       </c>
-      <c r="F63" s="5">
-        <v>3667</v>
+      <c r="F63" s="6">
+        <v>2667</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -7179,11 +7179,11 @@
       </c>
       <c r="Z63" s="2">
         <f t="shared" si="5"/>
-        <v>0.133335757399462</v>
+        <v>0.0969747654716021</v>
       </c>
     </row>
     <row r="64" spans="2:26">
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>44865</v>
       </c>
       <c r="C64" s="1">
@@ -7192,10 +7192,10 @@
       <c r="D64" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="6">
         <v>26498</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="6">
         <v>2572</v>
       </c>
       <c r="G64" s="1">
@@ -7264,7 +7264,7 @@
       </c>
     </row>
     <row r="65" spans="2:26">
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>44864</v>
       </c>
       <c r="C65" s="1">
@@ -7273,10 +7273,10 @@
       <c r="D65" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="6">
         <v>24672</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="6">
         <v>2496</v>
       </c>
       <c r="G65" s="1">
@@ -7345,7 +7345,7 @@
       </c>
     </row>
     <row r="66" spans="2:26">
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>44863</v>
       </c>
       <c r="C66" s="1">
@@ -7354,10 +7354,10 @@
       <c r="D66" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="6">
         <v>25156</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="6">
         <v>2536</v>
       </c>
       <c r="G66" s="1">
@@ -7426,7 +7426,7 @@
       </c>
     </row>
     <row r="67" spans="2:26">
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>44862</v>
       </c>
       <c r="C67" s="1">
@@ -7435,10 +7435,10 @@
       <c r="D67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="6">
         <v>27905</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="6">
         <v>2636</v>
       </c>
       <c r="G67" s="1">
@@ -7507,7 +7507,7 @@
       </c>
     </row>
     <row r="68" spans="2:26">
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>44861</v>
       </c>
       <c r="C68" s="1">
@@ -7516,10 +7516,10 @@
       <c r="D68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="6">
         <v>27609</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="6">
         <v>2615</v>
       </c>
       <c r="G68" s="1">
@@ -7588,7 +7588,7 @@
       </c>
     </row>
     <row r="69" spans="2:26">
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>44860</v>
       </c>
       <c r="C69" s="1">
@@ -7597,10 +7597,10 @@
       <c r="D69" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="6">
         <v>30063</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="6">
         <v>2904</v>
       </c>
       <c r="G69" s="1">
@@ -7669,7 +7669,7 @@
       </c>
     </row>
     <row r="70" spans="2:26">
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>44859</v>
       </c>
       <c r="C70" s="1">
@@ -7678,10 +7678,10 @@
       <c r="D70" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="6">
         <v>28953</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="6">
         <v>2817</v>
       </c>
       <c r="G70" s="1">
@@ -7750,7 +7750,7 @@
       </c>
     </row>
     <row r="71" spans="2:26">
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>44858</v>
       </c>
       <c r="C71" s="1">
@@ -7759,10 +7759,10 @@
       <c r="D71" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="6">
         <v>28947</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="6">
         <v>2768</v>
       </c>
       <c r="G71" s="1">
@@ -7831,7 +7831,7 @@
       </c>
     </row>
     <row r="72" spans="2:26">
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>44857</v>
       </c>
       <c r="C72" s="1">
@@ -7840,10 +7840,10 @@
       <c r="D72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="6">
         <v>29279</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="6">
         <v>3021</v>
       </c>
       <c r="G72" s="1">
@@ -7912,7 +7912,7 @@
       </c>
     </row>
     <row r="73" spans="2:26">
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>44856</v>
       </c>
       <c r="C73" s="1">
@@ -7921,10 +7921,10 @@
       <c r="D73" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="6">
         <v>29084</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="6">
         <v>2810</v>
       </c>
       <c r="G73" s="1">
@@ -7993,7 +7993,7 @@
       </c>
     </row>
     <row r="74" spans="2:26">
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>44855</v>
       </c>
       <c r="C74" s="1">
@@ -8002,10 +8002,10 @@
       <c r="D74" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="6">
         <v>28637</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="6">
         <v>2794</v>
       </c>
       <c r="G74" s="1">
@@ -8074,7 +8074,7 @@
       </c>
     </row>
     <row r="75" spans="2:26">
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>44854</v>
       </c>
       <c r="C75" s="1">
@@ -8083,10 +8083,10 @@
       <c r="D75" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="6">
         <v>28741</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="6">
         <v>2769</v>
       </c>
       <c r="G75" s="1">
@@ -8155,7 +8155,7 @@
       </c>
     </row>
     <row r="76" spans="2:26">
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>44853</v>
       </c>
       <c r="C76" s="1">
@@ -8164,10 +8164,10 @@
       <c r="D76" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="6">
         <v>28322</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="6">
         <v>2794</v>
       </c>
       <c r="G76" s="1">
@@ -8236,7 +8236,7 @@
       </c>
     </row>
     <row r="77" spans="2:26">
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>44852</v>
       </c>
       <c r="C77" s="1">
@@ -8245,10 +8245,10 @@
       <c r="D77" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="6">
         <v>28612</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="6">
         <v>2805</v>
       </c>
       <c r="G77" s="1">
@@ -8317,7 +8317,7 @@
       </c>
     </row>
     <row r="78" spans="2:26">
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>44851</v>
       </c>
       <c r="C78" s="1">
@@ -8326,10 +8326,10 @@
       <c r="D78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="6">
         <v>31269</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="6">
         <v>2965</v>
       </c>
       <c r="G78" s="1">
@@ -8398,7 +8398,7 @@
       </c>
     </row>
     <row r="79" spans="2:26">
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>44850</v>
       </c>
       <c r="C79" s="1">
@@ -8407,10 +8407,10 @@
       <c r="D79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="6">
         <v>30459</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="6">
         <v>2854</v>
       </c>
       <c r="G79" s="1">
@@ -8479,7 +8479,7 @@
       </c>
     </row>
     <row r="80" spans="2:26">
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>44849</v>
       </c>
       <c r="C80" s="1">
@@ -8488,10 +8488,10 @@
       <c r="D80" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="6">
         <v>30403</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="6">
         <v>3123</v>
       </c>
       <c r="G80" s="1">
@@ -8560,7 +8560,7 @@
       </c>
     </row>
     <row r="81" spans="2:26">
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>44848</v>
       </c>
       <c r="C81" s="1">
@@ -8569,10 +8569,10 @@
       <c r="D81" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="6">
         <v>28906</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="6">
         <v>2752</v>
       </c>
       <c r="G81" s="1">
@@ -8641,7 +8641,7 @@
       </c>
     </row>
     <row r="82" spans="2:26">
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>44847</v>
       </c>
       <c r="C82" s="1">
@@ -8650,10 +8650,10 @@
       <c r="D82" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="6">
         <v>27197</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="6">
         <v>2677</v>
       </c>
       <c r="G82" s="1">
@@ -8722,7 +8722,7 @@
       </c>
     </row>
     <row r="83" spans="2:26">
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>44846</v>
       </c>
       <c r="C83" s="1">
@@ -8731,10 +8731,10 @@
       <c r="D83" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="6">
         <v>29151</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="6">
         <v>2947</v>
       </c>
       <c r="G83" s="1">
@@ -8803,7 +8803,7 @@
       </c>
     </row>
     <row r="84" spans="2:26">
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>44845</v>
       </c>
       <c r="C84" s="1">
@@ -8812,10 +8812,10 @@
       <c r="D84" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="6">
         <v>28575</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="6">
         <v>2752</v>
       </c>
       <c r="G84" s="1">
@@ -8884,7 +8884,7 @@
       </c>
     </row>
     <row r="85" spans="2:26">
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>44844</v>
       </c>
       <c r="C85" s="1">
@@ -8893,10 +8893,10 @@
       <c r="D85" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="6">
         <v>26878</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="6">
         <v>2654</v>
       </c>
       <c r="G85" s="1">
@@ -8965,7 +8965,7 @@
       </c>
     </row>
     <row r="86" spans="2:26">
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>44843</v>
       </c>
       <c r="C86" s="1">
@@ -8974,10 +8974,10 @@
       <c r="D86" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="6">
         <v>28408</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="6">
         <v>2668</v>
       </c>
       <c r="G86" s="1">
@@ -9046,7 +9046,7 @@
       </c>
     </row>
     <row r="87" spans="2:26">
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>44842</v>
       </c>
       <c r="C87" s="1">
@@ -9055,10 +9055,10 @@
       <c r="D87" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="6">
         <v>26905</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="6">
         <v>2642</v>
       </c>
       <c r="G87" s="1">
@@ -9127,7 +9127,7 @@
       </c>
     </row>
     <row r="88" spans="2:26">
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>44841</v>
       </c>
       <c r="C88" s="1">
@@ -9136,10 +9136,10 @@
       <c r="D88" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="6">
         <v>29026</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="6">
         <v>2840</v>
       </c>
       <c r="G88" s="1">
@@ -9208,7 +9208,7 @@
       </c>
     </row>
     <row r="89" spans="2:26">
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <v>44840</v>
       </c>
       <c r="C89" s="1">
@@ -9217,10 +9217,10 @@
       <c r="D89" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="6">
         <v>32522</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="6">
         <v>2987</v>
       </c>
       <c r="G89" s="1">
@@ -9289,7 +9289,7 @@
       </c>
     </row>
     <row r="90" spans="2:26">
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>44839</v>
       </c>
       <c r="C90" s="1">
@@ -9298,10 +9298,10 @@
       <c r="D90" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="6">
         <v>30935</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="6">
         <v>2885</v>
       </c>
       <c r="G90" s="1">
@@ -9370,7 +9370,7 @@
       </c>
     </row>
     <row r="91" spans="2:26">
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>44838</v>
       </c>
       <c r="C91" s="1">
@@ -9379,10 +9379,10 @@
       <c r="D91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="6">
         <v>32014</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="6">
         <v>3060</v>
       </c>
       <c r="G91" s="1">
@@ -9451,7 +9451,7 @@
       </c>
     </row>
     <row r="92" spans="2:26">
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>44837</v>
       </c>
       <c r="C92" s="1">
@@ -9460,10 +9460,10 @@
       <c r="D92" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="6">
         <v>32288</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="6">
         <v>2969</v>
       </c>
       <c r="G92" s="1">
@@ -9532,7 +9532,7 @@
       </c>
     </row>
     <row r="93" spans="2:26">
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>44836</v>
       </c>
       <c r="C93" s="1">
@@ -9541,10 +9541,10 @@
       <c r="D93" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="6">
         <v>30088</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="6">
         <v>2775</v>
       </c>
       <c r="G93" s="1">
@@ -9613,7 +9613,7 @@
       </c>
     </row>
     <row r="94" spans="2:26">
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>44835</v>
       </c>
       <c r="C94" s="1">
@@ -9622,10 +9622,10 @@
       <c r="D94" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="6">
         <v>28202</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="6">
         <v>2696</v>
       </c>
       <c r="G94" s="1">
@@ -9694,7 +9694,7 @@
       </c>
     </row>
     <row r="95" spans="2:26">
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>44834</v>
       </c>
       <c r="C95" s="1">
@@ -9703,10 +9703,10 @@
       <c r="D95" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="6">
         <v>31223</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="6">
         <v>2859</v>
       </c>
       <c r="G95" s="1">
@@ -9775,7 +9775,7 @@
       </c>
     </row>
     <row r="96" spans="2:26">
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>44833</v>
       </c>
       <c r="C96" s="1">
@@ -9784,10 +9784,10 @@
       <c r="D96" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="6">
         <v>30477</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="6">
         <v>2829</v>
       </c>
       <c r="G96" s="1">
@@ -9856,7 +9856,7 @@
       </c>
     </row>
     <row r="97" spans="2:26">
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>44832</v>
       </c>
       <c r="C97" s="1">
@@ -9865,10 +9865,10 @@
       <c r="D97" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="6">
         <v>31355</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="6">
         <v>3007</v>
       </c>
       <c r="G97" s="1">
@@ -9937,7 +9937,7 @@
       </c>
     </row>
     <row r="98" spans="2:26">
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>44831</v>
       </c>
       <c r="C98" s="1">
@@ -9946,10 +9946,10 @@
       <c r="D98" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="6">
         <v>30985</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="6">
         <v>2888</v>
       </c>
       <c r="G98" s="1">
@@ -10018,7 +10018,7 @@
       </c>
     </row>
     <row r="99" spans="2:26">
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>44830</v>
       </c>
       <c r="C99" s="1">
@@ -10027,10 +10027,10 @@
       <c r="D99" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="6">
         <v>31706</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="6">
         <v>2884</v>
       </c>
       <c r="G99" s="1">
@@ -10099,7 +10099,7 @@
       </c>
     </row>
     <row r="100" spans="2:26">
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>44829</v>
       </c>
       <c r="C100" s="1">
@@ -10108,10 +10108,10 @@
       <c r="D100" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="6">
         <v>28994</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="6">
         <v>2677</v>
       </c>
       <c r="G100" s="1">
@@ -10180,7 +10180,7 @@
       </c>
     </row>
     <row r="101" spans="2:26">
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>44828</v>
       </c>
       <c r="C101" s="1">
@@ -10189,10 +10189,10 @@
       <c r="D101" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="6">
         <v>32777</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="6">
         <v>3077</v>
       </c>
       <c r="G101" s="1">
@@ -10261,7 +10261,7 @@
       </c>
     </row>
     <row r="102" spans="2:26">
-      <c r="B102" s="6">
+      <c r="B102" s="5">
         <v>44827</v>
       </c>
       <c r="C102" s="1">
@@ -10270,10 +10270,10 @@
       <c r="D102" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="6">
         <v>31509</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="6">
         <v>2893</v>
       </c>
       <c r="G102" s="1">
@@ -10342,7 +10342,7 @@
       </c>
     </row>
     <row r="103" spans="2:26">
-      <c r="B103" s="6">
+      <c r="B103" s="5">
         <v>44826</v>
       </c>
       <c r="C103" s="1">
@@ -10351,10 +10351,10 @@
       <c r="D103" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="6">
         <v>34455</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="6">
         <v>3119</v>
       </c>
       <c r="G103" s="1">
@@ -10423,7 +10423,7 @@
       </c>
     </row>
     <row r="104" spans="2:26">
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>44825</v>
       </c>
       <c r="C104" s="1">
@@ -10432,10 +10432,10 @@
       <c r="D104" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="6">
         <v>31976</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="6">
         <v>2900</v>
       </c>
       <c r="G104" s="1">
@@ -10504,7 +10504,7 @@
       </c>
     </row>
     <row r="105" spans="2:26">
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>44824</v>
       </c>
       <c r="C105" s="1">
@@ -10513,10 +10513,10 @@
       <c r="D105" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="6">
         <v>31277</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="6">
         <v>2843</v>
       </c>
       <c r="G105" s="1">
@@ -10585,7 +10585,7 @@
       </c>
     </row>
     <row r="106" spans="2:26">
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>44823</v>
       </c>
       <c r="C106" s="1">
@@ -10594,10 +10594,10 @@
       <c r="D106" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="6">
         <v>35050</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="6">
         <v>3430</v>
       </c>
       <c r="G106" s="1">
@@ -10666,7 +10666,7 @@
       </c>
     </row>
     <row r="107" spans="2:26">
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>44822</v>
       </c>
       <c r="C107" s="1">
@@ -10675,10 +10675,10 @@
       <c r="D107" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="6">
         <v>33102</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="6">
         <v>3038</v>
       </c>
       <c r="G107" s="1">
@@ -10747,7 +10747,7 @@
       </c>
     </row>
     <row r="108" spans="2:26">
-      <c r="B108" s="6">
+      <c r="B108" s="5">
         <v>44821</v>
       </c>
       <c r="C108" s="1">
@@ -10756,10 +10756,10 @@
       <c r="D108" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="6">
         <v>33418</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="6">
         <v>3073</v>
       </c>
       <c r="G108" s="1">
@@ -10828,7 +10828,7 @@
       </c>
     </row>
     <row r="109" spans="2:26">
-      <c r="B109" s="6">
+      <c r="B109" s="5">
         <v>44820</v>
       </c>
       <c r="C109" s="1">
@@ -10837,10 +10837,10 @@
       <c r="D109" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="6">
         <v>37309</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="6">
         <v>4130</v>
       </c>
       <c r="G109" s="1">
@@ -10908,7 +10908,7 @@
       </c>
     </row>
     <row r="110" spans="2:26">
-      <c r="B110" s="6">
+      <c r="B110" s="5">
         <v>44819</v>
       </c>
       <c r="C110" s="1">
@@ -10917,10 +10917,10 @@
       <c r="D110" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="6">
         <v>33344</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="6">
         <v>3011</v>
       </c>
       <c r="G110" s="1">
@@ -10989,7 +10989,7 @@
       </c>
     </row>
     <row r="111" spans="2:26">
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>44818</v>
       </c>
       <c r="C111" s="1">
@@ -10998,10 +10998,10 @@
       <c r="D111" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="6">
         <v>32142</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="6">
         <v>2938</v>
       </c>
       <c r="G111" s="1">
@@ -11070,7 +11070,7 @@
       </c>
     </row>
     <row r="112" spans="2:26">
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>44817</v>
       </c>
       <c r="C112" s="1">
@@ -11079,10 +11079,10 @@
       <c r="D112" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="6">
         <v>29497</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="6">
         <v>2706</v>
       </c>
       <c r="G112" s="1">
@@ -11151,7 +11151,7 @@
       </c>
     </row>
     <row r="113" spans="2:26">
-      <c r="B113" s="6">
+      <c r="B113" s="5">
         <v>44816</v>
       </c>
       <c r="C113" s="1">
@@ -11160,10 +11160,10 @@
       <c r="D113" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="6">
         <v>29147</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="6">
         <v>2883</v>
       </c>
       <c r="G113" s="1">
@@ -11232,7 +11232,7 @@
       </c>
     </row>
     <row r="114" spans="2:26">
-      <c r="B114" s="6">
+      <c r="B114" s="5">
         <v>44815</v>
       </c>
       <c r="C114" s="1">
@@ -11241,10 +11241,10 @@
       <c r="D114" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="6">
         <v>27887</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="6">
         <v>2675</v>
       </c>
       <c r="G114" s="1">
@@ -11313,7 +11313,7 @@
       </c>
     </row>
     <row r="115" spans="2:26">
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>44814</v>
       </c>
       <c r="C115" s="1">
@@ -11322,10 +11322,10 @@
       <c r="D115" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="6">
         <v>29237</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="6">
         <v>2777</v>
       </c>
       <c r="G115" s="1">
@@ -11394,7 +11394,7 @@
       </c>
     </row>
     <row r="116" spans="2:26">
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>44813</v>
       </c>
       <c r="C116" s="1">
@@ -11403,10 +11403,10 @@
       <c r="D116" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="6">
         <v>32172</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="6">
         <v>2909</v>
       </c>
       <c r="G116" s="1">
@@ -11475,7 +11475,7 @@
       </c>
     </row>
     <row r="117" spans="2:26">
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>44812</v>
       </c>
       <c r="C117" s="1">
@@ -11484,10 +11484,10 @@
       <c r="D117" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="6">
         <v>31962</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="6">
         <v>3001</v>
       </c>
       <c r="G117" s="1">
@@ -11556,7 +11556,7 @@
       </c>
     </row>
     <row r="118" spans="2:26">
-      <c r="B118" s="6">
+      <c r="B118" s="5">
         <v>44811</v>
       </c>
       <c r="C118" s="1">
@@ -11565,10 +11565,10 @@
       <c r="D118" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="6">
         <v>30992</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="6">
         <v>2873</v>
       </c>
       <c r="G118" s="1">
@@ -11637,7 +11637,7 @@
       </c>
     </row>
     <row r="119" spans="2:26">
-      <c r="B119" s="6">
+      <c r="B119" s="5">
         <v>44810</v>
       </c>
       <c r="C119" s="1">
@@ -11646,10 +11646,10 @@
       <c r="D119" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="6">
         <v>32734</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="6">
         <v>3022</v>
       </c>
       <c r="G119" s="1">
@@ -11718,7 +11718,7 @@
       </c>
     </row>
     <row r="120" spans="2:26">
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>44809</v>
       </c>
       <c r="C120" s="1">
@@ -11727,10 +11727,10 @@
       <c r="D120" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="6">
         <v>32733</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="6">
         <v>2970</v>
       </c>
       <c r="G120" s="1">
@@ -11799,7 +11799,7 @@
       </c>
     </row>
     <row r="121" spans="2:26">
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>44808</v>
       </c>
       <c r="C121" s="1">
@@ -11808,10 +11808,10 @@
       <c r="D121" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="6">
         <v>32018</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="6">
         <v>2889</v>
       </c>
       <c r="G121" s="1">
@@ -11880,7 +11880,7 @@
       </c>
     </row>
     <row r="122" spans="2:26">
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>44807</v>
       </c>
       <c r="C122" s="1">
@@ -11889,10 +11889,10 @@
       <c r="D122" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="6">
         <v>31191</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="6">
         <v>2877</v>
       </c>
       <c r="G122" s="1">
@@ -11961,7 +11961,7 @@
       </c>
     </row>
     <row r="123" spans="2:26">
-      <c r="B123" s="6">
+      <c r="B123" s="5">
         <v>44806</v>
       </c>
       <c r="C123" s="1">
@@ -11970,10 +11970,10 @@
       <c r="D123" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="6">
         <v>35724</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="6">
         <v>3149</v>
       </c>
       <c r="G123" s="1">
@@ -12042,7 +12042,7 @@
       </c>
     </row>
     <row r="124" spans="2:26">
-      <c r="B124" s="6">
+      <c r="B124" s="5">
         <v>44805</v>
       </c>
       <c r="C124" s="1">
@@ -12051,10 +12051,10 @@
       <c r="D124" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="6">
         <v>31903</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="6">
         <v>2928</v>
       </c>
       <c r="G124" s="1">
@@ -12123,7 +12123,7 @@
       </c>
     </row>
     <row r="125" spans="2:26">
-      <c r="B125" s="6">
+      <c r="B125" s="5">
         <v>44804</v>
       </c>
       <c r="C125" s="1">
@@ -12132,10 +12132,10 @@
       <c r="D125" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="6">
         <v>35343</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="6">
         <v>3166</v>
       </c>
       <c r="G125" s="1">
@@ -12204,7 +12204,7 @@
       </c>
     </row>
     <row r="126" spans="2:26">
-      <c r="B126" s="6">
+      <c r="B126" s="5">
         <v>44803</v>
       </c>
       <c r="C126" s="1">
@@ -12213,10 +12213,10 @@
       <c r="D126" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="6">
         <v>33660</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="6">
         <v>3009</v>
       </c>
       <c r="G126" s="1">
@@ -12285,7 +12285,7 @@
       </c>
     </row>
     <row r="127" spans="2:26">
-      <c r="B127" s="6">
+      <c r="B127" s="5">
         <v>44802</v>
       </c>
       <c r="C127" s="1">
@@ -12294,10 +12294,10 @@
       <c r="D127" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="6">
         <v>34281</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="6">
         <v>3072</v>
       </c>
       <c r="G127" s="1">
@@ -12366,7 +12366,7 @@
       </c>
     </row>
     <row r="128" spans="2:26">
-      <c r="B128" s="6">
+      <c r="B128" s="5">
         <v>44801</v>
       </c>
       <c r="C128" s="1">
@@ -12375,10 +12375,10 @@
       <c r="D128" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="6">
         <v>30214</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="6">
         <v>2866</v>
       </c>
       <c r="G128" s="1">
@@ -12447,7 +12447,7 @@
       </c>
     </row>
     <row r="129" spans="2:26">
-      <c r="B129" s="6">
+      <c r="B129" s="5">
         <v>44800</v>
       </c>
       <c r="C129" s="1">
@@ -12456,10 +12456,10 @@
       <c r="D129" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="6">
         <v>31241</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="6">
         <v>2784</v>
       </c>
       <c r="G129" s="1">
@@ -12528,7 +12528,7 @@
       </c>
     </row>
     <row r="130" spans="2:26">
-      <c r="B130" s="6">
+      <c r="B130" s="5">
         <v>44799</v>
       </c>
       <c r="C130" s="1">
@@ -12537,10 +12537,10 @@
       <c r="D130" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="6">
         <v>34716</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="6">
         <v>3046</v>
       </c>
       <c r="G130" s="1">
@@ -12609,7 +12609,7 @@
       </c>
     </row>
     <row r="131" spans="2:26">
-      <c r="B131" s="6">
+      <c r="B131" s="5">
         <v>44798</v>
       </c>
       <c r="C131" s="1">
@@ -12618,10 +12618,10 @@
       <c r="D131" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="6">
         <v>36737</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="6">
         <v>3175</v>
       </c>
       <c r="G131" s="1">
@@ -12690,7 +12690,7 @@
       </c>
     </row>
     <row r="132" spans="2:26">
-      <c r="B132" s="6">
+      <c r="B132" s="5">
         <v>44797</v>
       </c>
       <c r="C132" s="1">
@@ -12699,10 +12699,10 @@
       <c r="D132" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="6">
         <v>33700</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="6">
         <v>2927</v>
       </c>
       <c r="G132" s="1">
@@ -12771,7 +12771,7 @@
       </c>
     </row>
     <row r="133" spans="2:26">
-      <c r="B133" s="6">
+      <c r="B133" s="5">
         <v>44796</v>
       </c>
       <c r="C133" s="1">
@@ -12780,10 +12780,10 @@
       <c r="D133" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="6">
         <v>33549</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="6">
         <v>2933</v>
       </c>
       <c r="G133" s="1">
@@ -12852,7 +12852,7 @@
       </c>
     </row>
     <row r="134" spans="2:26">
-      <c r="B134" s="6">
+      <c r="B134" s="5">
         <v>44795</v>
       </c>
       <c r="C134" s="1">
@@ -12861,10 +12861,10 @@
       <c r="D134" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="6">
         <v>35888</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="6">
         <v>3123</v>
       </c>
       <c r="G134" s="1">
@@ -12933,7 +12933,7 @@
       </c>
     </row>
     <row r="135" spans="2:26">
-      <c r="B135" s="6">
+      <c r="B135" s="5">
         <v>44794</v>
       </c>
       <c r="C135" s="1">
@@ -12942,10 +12942,10 @@
       <c r="D135" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="6">
         <v>35617</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135" s="6">
         <v>3186</v>
       </c>
       <c r="G135" s="1">
@@ -13014,7 +13014,7 @@
       </c>
     </row>
     <row r="136" spans="2:26">
-      <c r="B136" s="6">
+      <c r="B136" s="5">
         <v>44793</v>
       </c>
       <c r="C136" s="1">
@@ -13023,10 +13023,10 @@
       <c r="D136" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="6">
         <v>38245</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136" s="6">
         <v>3249</v>
       </c>
       <c r="G136" s="1">
@@ -13095,7 +13095,7 @@
       </c>
     </row>
     <row r="137" spans="2:26">
-      <c r="B137" s="6">
+      <c r="B137" s="5">
         <v>44792</v>
       </c>
       <c r="C137" s="1">
@@ -13104,10 +13104,10 @@
       <c r="D137" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="6">
         <v>33965</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137" s="6">
         <v>2987</v>
       </c>
       <c r="G137" s="1">
@@ -13176,7 +13176,7 @@
       </c>
     </row>
     <row r="138" spans="2:26">
-      <c r="B138" s="6">
+      <c r="B138" s="5">
         <v>44791</v>
       </c>
       <c r="C138" s="1">
@@ -13185,10 +13185,10 @@
       <c r="D138" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="6">
         <v>34938</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="6">
         <v>3172</v>
       </c>
       <c r="G138" s="1">
@@ -13257,7 +13257,7 @@
       </c>
     </row>
     <row r="139" spans="2:26">
-      <c r="B139" s="6">
+      <c r="B139" s="5">
         <v>44790</v>
       </c>
       <c r="C139" s="1">
@@ -13266,10 +13266,10 @@
       <c r="D139" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="6">
         <v>35815</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139" s="6">
         <v>3173</v>
       </c>
       <c r="G139" s="1">
@@ -13338,7 +13338,7 @@
       </c>
     </row>
     <row r="140" spans="2:26">
-      <c r="B140" s="6">
+      <c r="B140" s="5">
         <v>44789</v>
       </c>
       <c r="C140" s="1">
@@ -13347,10 +13347,10 @@
       <c r="D140" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="6">
         <v>35105</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140" s="6">
         <v>3087</v>
       </c>
       <c r="G140" s="1">
@@ -13419,7 +13419,7 @@
       </c>
     </row>
     <row r="141" spans="2:26">
-      <c r="B141" s="6">
+      <c r="B141" s="5">
         <v>44788</v>
       </c>
       <c r="C141" s="1">
@@ -13428,10 +13428,10 @@
       <c r="D141" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="6">
         <v>35376</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F141" s="6">
         <v>3180</v>
       </c>
       <c r="G141" s="1">
@@ -13500,7 +13500,7 @@
       </c>
     </row>
     <row r="142" spans="2:26">
-      <c r="B142" s="6">
+      <c r="B142" s="5">
         <v>44787</v>
       </c>
       <c r="C142" s="1">
@@ -13509,10 +13509,10 @@
       <c r="D142" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="6">
         <v>31652</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142" s="6">
         <v>2968</v>
       </c>
       <c r="G142" s="1">
@@ -13581,7 +13581,7 @@
       </c>
     </row>
     <row r="143" spans="2:26">
-      <c r="B143" s="6">
+      <c r="B143" s="5">
         <v>44786</v>
       </c>
       <c r="C143" s="1">
@@ -13590,10 +13590,10 @@
       <c r="D143" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="6">
         <v>35276</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="6">
         <v>3185</v>
       </c>
       <c r="G143" s="1">
@@ -13662,7 +13662,7 @@
       </c>
     </row>
     <row r="144" spans="2:26">
-      <c r="B144" s="6">
+      <c r="B144" s="5">
         <v>44785</v>
       </c>
       <c r="C144" s="1">
@@ -13671,10 +13671,10 @@
       <c r="D144" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144" s="6">
         <v>34198</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="6">
         <v>3076</v>
       </c>
       <c r="G144" s="1">
@@ -13743,7 +13743,7 @@
       </c>
     </row>
     <row r="145" spans="2:26">
-      <c r="B145" s="6">
+      <c r="B145" s="5">
         <v>44784</v>
       </c>
       <c r="C145" s="1">
@@ -13752,10 +13752,10 @@
       <c r="D145" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="6">
         <v>37301</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F145" s="6">
         <v>3243</v>
       </c>
       <c r="G145" s="1">
@@ -13824,7 +13824,7 @@
       </c>
     </row>
     <row r="146" spans="2:26">
-      <c r="B146" s="6">
+      <c r="B146" s="5">
         <v>44783</v>
       </c>
       <c r="C146" s="1">
@@ -13833,10 +13833,10 @@
       <c r="D146" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="6">
         <v>37654</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F146" s="6">
         <v>3312</v>
       </c>
       <c r="G146" s="1">
@@ -13905,7 +13905,7 @@
       </c>
     </row>
     <row r="147" spans="2:26">
-      <c r="B147" s="6">
+      <c r="B147" s="5">
         <v>44782</v>
       </c>
       <c r="C147" s="1">
@@ -13914,10 +13914,10 @@
       <c r="D147" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147" s="6">
         <v>36223</v>
       </c>
-      <c r="F147" s="5">
+      <c r="F147" s="6">
         <v>3019</v>
       </c>
       <c r="G147" s="1">
@@ -13986,7 +13986,7 @@
       </c>
     </row>
     <row r="148" spans="2:26">
-      <c r="B148" s="6">
+      <c r="B148" s="5">
         <v>44781</v>
       </c>
       <c r="C148" s="1">
@@ -13995,10 +13995,10 @@
       <c r="D148" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="6">
         <v>35516</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="6">
         <v>3187</v>
       </c>
       <c r="G148" s="1">
@@ -14067,7 +14067,7 @@
       </c>
     </row>
     <row r="149" spans="2:26">
-      <c r="B149" s="6">
+      <c r="B149" s="5">
         <v>44780</v>
       </c>
       <c r="C149" s="1">
@@ -14076,10 +14076,10 @@
       <c r="D149" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="6">
         <v>36223</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F149" s="6">
         <v>3190</v>
       </c>
       <c r="G149" s="1">
@@ -14148,7 +14148,7 @@
       </c>
     </row>
     <row r="150" spans="2:26">
-      <c r="B150" s="6">
+      <c r="B150" s="5">
         <v>44779</v>
       </c>
       <c r="C150" s="1">
@@ -14157,10 +14157,10 @@
       <c r="D150" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="6">
         <v>38841</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F150" s="6">
         <v>3395</v>
       </c>
       <c r="G150" s="1">
@@ -14229,7 +14229,7 @@
       </c>
     </row>
     <row r="151" spans="2:26">
-      <c r="B151" s="6">
+      <c r="B151" s="5">
         <v>44778</v>
       </c>
       <c r="C151" s="1">
@@ -14238,10 +14238,10 @@
       <c r="D151" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E151" s="6">
         <v>37350</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151" s="6">
         <v>3428</v>
       </c>
       <c r="G151" s="1">
@@ -14310,7 +14310,7 @@
       </c>
     </row>
     <row r="152" spans="2:26">
-      <c r="B152" s="6">
+      <c r="B152" s="5">
         <v>44777</v>
       </c>
       <c r="C152" s="1">
@@ -14319,10 +14319,10 @@
       <c r="D152" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E152" s="6">
         <v>37229</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152" s="6">
         <v>3336</v>
       </c>
       <c r="G152" s="1">
@@ -14391,7 +14391,7 @@
       </c>
     </row>
     <row r="153" spans="2:26">
-      <c r="B153" s="6">
+      <c r="B153" s="5">
         <v>44776</v>
       </c>
       <c r="C153" s="1">
@@ -14400,10 +14400,10 @@
       <c r="D153" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E153" s="6">
         <v>38381</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F153" s="6">
         <v>3327</v>
       </c>
       <c r="G153" s="1">
@@ -14472,7 +14472,7 @@
       </c>
     </row>
     <row r="154" spans="2:26">
-      <c r="B154" s="6">
+      <c r="B154" s="5">
         <v>44775</v>
       </c>
       <c r="C154" s="1">
@@ -14481,10 +14481,10 @@
       <c r="D154" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="6">
         <v>34909</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154" s="6">
         <v>3380</v>
       </c>
       <c r="G154" s="1">
@@ -14553,7 +14553,7 @@
       </c>
     </row>
     <row r="155" spans="2:26">
-      <c r="B155" s="6">
+      <c r="B155" s="5">
         <v>44774</v>
       </c>
       <c r="C155" s="1">
@@ -14634,7 +14634,7 @@
       </c>
     </row>
     <row r="156" spans="2:26">
-      <c r="B156" s="6">
+      <c r="B156" s="5">
         <v>44773</v>
       </c>
       <c r="C156" s="1">
@@ -14715,7 +14715,7 @@
       </c>
     </row>
     <row r="157" spans="2:26">
-      <c r="B157" s="6">
+      <c r="B157" s="5">
         <v>44772</v>
       </c>
       <c r="C157" s="1">
@@ -14796,7 +14796,7 @@
       </c>
     </row>
     <row r="158" spans="2:26">
-      <c r="B158" s="6">
+      <c r="B158" s="5">
         <v>44771</v>
       </c>
       <c r="C158" s="1">
@@ -14877,7 +14877,7 @@
       </c>
     </row>
     <row r="159" spans="2:26">
-      <c r="B159" s="6">
+      <c r="B159" s="5">
         <v>44770</v>
       </c>
       <c r="C159" s="1">
@@ -14958,7 +14958,7 @@
       </c>
     </row>
     <row r="160" spans="2:26">
-      <c r="B160" s="6">
+      <c r="B160" s="5">
         <v>44769</v>
       </c>
       <c r="C160" s="1">
@@ -15039,7 +15039,7 @@
       </c>
     </row>
     <row r="161" spans="2:26">
-      <c r="B161" s="6">
+      <c r="B161" s="5">
         <v>44768</v>
       </c>
       <c r="C161" s="1">
@@ -15120,7 +15120,7 @@
       </c>
     </row>
     <row r="162" spans="2:26">
-      <c r="B162" s="6">
+      <c r="B162" s="5">
         <v>44767</v>
       </c>
       <c r="C162" s="1">
@@ -15201,7 +15201,7 @@
       </c>
     </row>
     <row r="163" spans="2:26">
-      <c r="B163" s="6">
+      <c r="B163" s="5">
         <v>44766</v>
       </c>
       <c r="C163" s="1">
@@ -15282,7 +15282,7 @@
       </c>
     </row>
     <row r="164" spans="2:26">
-      <c r="B164" s="6">
+      <c r="B164" s="5">
         <v>44765</v>
       </c>
       <c r="C164" s="1">
@@ -15363,7 +15363,7 @@
       </c>
     </row>
     <row r="165" spans="2:26">
-      <c r="B165" s="6">
+      <c r="B165" s="5">
         <v>44764</v>
       </c>
       <c r="C165" s="1">
@@ -15444,7 +15444,7 @@
       </c>
     </row>
     <row r="166" spans="2:26">
-      <c r="B166" s="6">
+      <c r="B166" s="5">
         <v>44763</v>
       </c>
       <c r="C166" s="1">
@@ -15525,7 +15525,7 @@
       </c>
     </row>
     <row r="167" spans="2:26">
-      <c r="B167" s="6">
+      <c r="B167" s="5">
         <v>44762</v>
       </c>
       <c r="C167" s="1">
@@ -15606,7 +15606,7 @@
       </c>
     </row>
     <row r="168" spans="2:26">
-      <c r="B168" s="6">
+      <c r="B168" s="5">
         <v>44761</v>
       </c>
       <c r="C168" s="1">
@@ -15687,7 +15687,7 @@
       </c>
     </row>
     <row r="169" spans="2:26">
-      <c r="B169" s="6">
+      <c r="B169" s="5">
         <v>44760</v>
       </c>
       <c r="C169" s="1">
@@ -15768,7 +15768,7 @@
       </c>
     </row>
     <row r="170" spans="2:26">
-      <c r="B170" s="6">
+      <c r="B170" s="5">
         <v>44759</v>
       </c>
       <c r="C170" s="1">
@@ -15849,7 +15849,7 @@
       </c>
     </row>
     <row r="171" spans="2:26">
-      <c r="B171" s="6">
+      <c r="B171" s="5">
         <v>44758</v>
       </c>
       <c r="C171" s="1">
@@ -15930,7 +15930,7 @@
       </c>
     </row>
     <row r="172" spans="2:26">
-      <c r="B172" s="6">
+      <c r="B172" s="5">
         <v>44757</v>
       </c>
       <c r="C172" s="1">
@@ -16011,7 +16011,7 @@
       </c>
     </row>
     <row r="173" spans="2:26">
-      <c r="B173" s="6">
+      <c r="B173" s="5">
         <v>44756</v>
       </c>
       <c r="C173" s="1">
@@ -16092,7 +16092,7 @@
       </c>
     </row>
     <row r="174" spans="2:26">
-      <c r="B174" s="6">
+      <c r="B174" s="5">
         <v>44755</v>
       </c>
       <c r="C174" s="1">
@@ -16173,7 +16173,7 @@
       </c>
     </row>
     <row r="175" spans="2:26">
-      <c r="B175" s="6">
+      <c r="B175" s="5">
         <v>44754</v>
       </c>
       <c r="C175" s="1">
@@ -16254,7 +16254,7 @@
       </c>
     </row>
     <row r="176" spans="2:26">
-      <c r="B176" s="6">
+      <c r="B176" s="5">
         <v>44753</v>
       </c>
       <c r="C176" s="1">
@@ -16335,7 +16335,7 @@
       </c>
     </row>
     <row r="177" spans="2:26">
-      <c r="B177" s="6">
+      <c r="B177" s="5">
         <v>44752</v>
       </c>
       <c r="C177" s="1">
@@ -16416,7 +16416,7 @@
       </c>
     </row>
     <row r="178" spans="2:26">
-      <c r="B178" s="6">
+      <c r="B178" s="5">
         <v>44751</v>
       </c>
       <c r="C178" s="1">
@@ -16497,7 +16497,7 @@
       </c>
     </row>
     <row r="179" spans="2:26">
-      <c r="B179" s="6">
+      <c r="B179" s="5">
         <v>44750</v>
       </c>
       <c r="C179" s="1">
@@ -16578,7 +16578,7 @@
       </c>
     </row>
     <row r="180" spans="2:26">
-      <c r="B180" s="6">
+      <c r="B180" s="5">
         <v>44749</v>
       </c>
       <c r="C180" s="1">
@@ -16659,7 +16659,7 @@
       </c>
     </row>
     <row r="181" spans="2:26">
-      <c r="B181" s="6">
+      <c r="B181" s="5">
         <v>44748</v>
       </c>
       <c r="C181" s="1">
@@ -16740,7 +16740,7 @@
       </c>
     </row>
     <row r="182" spans="2:26">
-      <c r="B182" s="6">
+      <c r="B182" s="5">
         <v>44747</v>
       </c>
       <c r="C182" s="1">
@@ -16821,7 +16821,7 @@
       </c>
     </row>
     <row r="183" spans="2:26">
-      <c r="B183" s="6">
+      <c r="B183" s="5">
         <v>44746</v>
       </c>
       <c r="C183" s="1">
@@ -16902,7 +16902,7 @@
       </c>
     </row>
     <row r="184" spans="2:26">
-      <c r="B184" s="6">
+      <c r="B184" s="5">
         <v>44745</v>
       </c>
       <c r="C184" s="1">
@@ -16983,7 +16983,7 @@
       </c>
     </row>
     <row r="185" spans="2:26">
-      <c r="B185" s="6">
+      <c r="B185" s="5">
         <v>44744</v>
       </c>
       <c r="C185" s="1">
@@ -17064,7 +17064,7 @@
       </c>
     </row>
     <row r="186" spans="2:26">
-      <c r="B186" s="6">
+      <c r="B186" s="5">
         <v>44743</v>
       </c>
       <c r="C186" s="1">
@@ -17145,7 +17145,7 @@
       </c>
     </row>
     <row r="187" spans="2:26">
-      <c r="B187" s="6">
+      <c r="B187" s="5">
         <v>44742</v>
       </c>
       <c r="C187" s="1">
@@ -17226,7 +17226,7 @@
       </c>
     </row>
     <row r="188" spans="2:26">
-      <c r="B188" s="6">
+      <c r="B188" s="5">
         <v>44741</v>
       </c>
       <c r="C188" s="1">
@@ -17307,7 +17307,7 @@
       </c>
     </row>
     <row r="189" spans="2:26">
-      <c r="B189" s="6">
+      <c r="B189" s="5">
         <v>44740</v>
       </c>
       <c r="C189" s="1">
@@ -17388,7 +17388,7 @@
       </c>
     </row>
     <row r="190" spans="2:26">
-      <c r="B190" s="6">
+      <c r="B190" s="5">
         <v>44739</v>
       </c>
       <c r="C190" s="1">
@@ -17469,7 +17469,7 @@
       </c>
     </row>
     <row r="191" spans="2:26">
-      <c r="B191" s="6">
+      <c r="B191" s="5">
         <v>44738</v>
       </c>
       <c r="C191" s="1">
@@ -17550,7 +17550,7 @@
       </c>
     </row>
     <row r="192" spans="2:26">
-      <c r="B192" s="6">
+      <c r="B192" s="5">
         <v>44737</v>
       </c>
       <c r="C192" s="1">
@@ -17631,7 +17631,7 @@
       </c>
     </row>
     <row r="193" spans="2:26">
-      <c r="B193" s="6">
+      <c r="B193" s="5">
         <v>44736</v>
       </c>
       <c r="C193" s="1">
@@ -17712,7 +17712,7 @@
       </c>
     </row>
     <row r="194" spans="2:26">
-      <c r="B194" s="6">
+      <c r="B194" s="5">
         <v>44735</v>
       </c>
       <c r="C194" s="1">
@@ -17793,7 +17793,7 @@
       </c>
     </row>
     <row r="195" spans="2:26">
-      <c r="B195" s="6">
+      <c r="B195" s="5">
         <v>44734</v>
       </c>
       <c r="C195" s="1">
@@ -17874,7 +17874,7 @@
       </c>
     </row>
     <row r="196" spans="2:26">
-      <c r="B196" s="6">
+      <c r="B196" s="5">
         <v>44733</v>
       </c>
       <c r="C196" s="1">
@@ -17955,7 +17955,7 @@
       </c>
     </row>
     <row r="197" spans="2:26">
-      <c r="B197" s="6">
+      <c r="B197" s="5">
         <v>44732</v>
       </c>
       <c r="C197" s="1">
@@ -18036,7 +18036,7 @@
       </c>
     </row>
     <row r="198" spans="2:26">
-      <c r="B198" s="6">
+      <c r="B198" s="5">
         <v>44731</v>
       </c>
       <c r="C198" s="1">
@@ -18117,7 +18117,7 @@
       </c>
     </row>
     <row r="199" spans="2:26">
-      <c r="B199" s="6">
+      <c r="B199" s="5">
         <v>44730</v>
       </c>
       <c r="C199" s="1">
@@ -18198,7 +18198,7 @@
       </c>
     </row>
     <row r="200" spans="2:26">
-      <c r="B200" s="6">
+      <c r="B200" s="5">
         <v>44729</v>
       </c>
       <c r="C200" s="1">
@@ -18279,7 +18279,7 @@
       </c>
     </row>
     <row r="201" spans="2:26">
-      <c r="B201" s="6">
+      <c r="B201" s="5">
         <v>44728</v>
       </c>
       <c r="C201" s="1">
@@ -18360,7 +18360,7 @@
       </c>
     </row>
     <row r="202" spans="2:26">
-      <c r="B202" s="6">
+      <c r="B202" s="5">
         <v>44727</v>
       </c>
       <c r="C202" s="1">
@@ -18441,7 +18441,7 @@
       </c>
     </row>
     <row r="203" spans="2:26">
-      <c r="B203" s="6">
+      <c r="B203" s="5">
         <v>44726</v>
       </c>
       <c r="C203" s="1">
@@ -18522,7 +18522,7 @@
       </c>
     </row>
     <row r="204" spans="2:26">
-      <c r="B204" s="6">
+      <c r="B204" s="5">
         <v>44725</v>
       </c>
       <c r="C204" s="1">
@@ -18603,7 +18603,7 @@
       </c>
     </row>
     <row r="205" spans="2:26">
-      <c r="B205" s="6">
+      <c r="B205" s="5">
         <v>44724</v>
       </c>
       <c r="C205" s="1">
@@ -18684,7 +18684,7 @@
       </c>
     </row>
     <row r="206" spans="2:26">
-      <c r="B206" s="6">
+      <c r="B206" s="5">
         <v>44723</v>
       </c>
       <c r="C206" s="1">
@@ -18765,7 +18765,7 @@
       </c>
     </row>
     <row r="207" spans="2:26">
-      <c r="B207" s="6">
+      <c r="B207" s="5">
         <v>44722</v>
       </c>
       <c r="C207" s="1">
@@ -18846,7 +18846,7 @@
       </c>
     </row>
     <row r="208" spans="2:26">
-      <c r="B208" s="6">
+      <c r="B208" s="5">
         <v>44721</v>
       </c>
       <c r="C208" s="1">
@@ -18927,7 +18927,7 @@
       </c>
     </row>
     <row r="209" spans="2:26">
-      <c r="B209" s="6">
+      <c r="B209" s="5">
         <v>44720</v>
       </c>
       <c r="C209" s="1">
@@ -19008,7 +19008,7 @@
       </c>
     </row>
     <row r="210" spans="2:26">
-      <c r="B210" s="6">
+      <c r="B210" s="5">
         <v>44719</v>
       </c>
       <c r="C210" s="1">
@@ -19089,7 +19089,7 @@
       </c>
     </row>
     <row r="211" spans="2:26">
-      <c r="B211" s="6">
+      <c r="B211" s="5">
         <v>44718</v>
       </c>
       <c r="C211" s="1">
@@ -19170,7 +19170,7 @@
       </c>
     </row>
     <row r="212" spans="2:26">
-      <c r="B212" s="6">
+      <c r="B212" s="5">
         <v>44717</v>
       </c>
       <c r="C212" s="1">
@@ -19251,7 +19251,7 @@
       </c>
     </row>
     <row r="213" spans="2:26">
-      <c r="B213" s="6">
+      <c r="B213" s="5">
         <v>44716</v>
       </c>
       <c r="C213" s="1">
@@ -19332,7 +19332,7 @@
       </c>
     </row>
     <row r="214" spans="2:26">
-      <c r="B214" s="6">
+      <c r="B214" s="5">
         <v>44715</v>
       </c>
       <c r="C214" s="1">
@@ -19413,7 +19413,7 @@
       </c>
     </row>
     <row r="215" spans="2:26">
-      <c r="B215" s="6">
+      <c r="B215" s="5">
         <v>44714</v>
       </c>
       <c r="C215" s="1">
@@ -19494,7 +19494,7 @@
       </c>
     </row>
     <row r="216" spans="2:26">
-      <c r="B216" s="6">
+      <c r="B216" s="5">
         <v>44713</v>
       </c>
       <c r="C216" s="1">
@@ -19575,7 +19575,7 @@
       </c>
     </row>
     <row r="217" spans="2:26">
-      <c r="B217" s="6">
+      <c r="B217" s="5">
         <v>44712</v>
       </c>
       <c r="C217" s="1">
@@ -19656,7 +19656,7 @@
       </c>
     </row>
     <row r="218" spans="2:26">
-      <c r="B218" s="6">
+      <c r="B218" s="5">
         <v>44711</v>
       </c>
       <c r="C218" s="1">
@@ -19737,7 +19737,7 @@
       </c>
     </row>
     <row r="219" spans="2:26">
-      <c r="B219" s="6">
+      <c r="B219" s="5">
         <v>44710</v>
       </c>
       <c r="C219" s="1">
@@ -19818,7 +19818,7 @@
       </c>
     </row>
     <row r="220" spans="2:26">
-      <c r="B220" s="6">
+      <c r="B220" s="5">
         <v>44709</v>
       </c>
       <c r="C220" s="1">
@@ -19899,7 +19899,7 @@
       </c>
     </row>
     <row r="221" spans="2:26">
-      <c r="B221" s="6">
+      <c r="B221" s="5">
         <v>44708</v>
       </c>
       <c r="C221" s="1">
@@ -19980,7 +19980,7 @@
       </c>
     </row>
     <row r="222" spans="2:26">
-      <c r="B222" s="6">
+      <c r="B222" s="5">
         <v>44707</v>
       </c>
       <c r="C222" s="1">
@@ -20061,7 +20061,7 @@
       </c>
     </row>
     <row r="223" spans="2:26">
-      <c r="B223" s="6">
+      <c r="B223" s="5">
         <v>44706</v>
       </c>
       <c r="C223" s="1">
@@ -20142,7 +20142,7 @@
       </c>
     </row>
     <row r="224" spans="2:26">
-      <c r="B224" s="6">
+      <c r="B224" s="5">
         <v>44705</v>
       </c>
       <c r="C224" s="1">
@@ -20223,7 +20223,7 @@
       </c>
     </row>
     <row r="225" spans="2:26">
-      <c r="B225" s="6">
+      <c r="B225" s="5">
         <v>44704</v>
       </c>
       <c r="C225" s="1">
@@ -20304,7 +20304,7 @@
       </c>
     </row>
     <row r="226" spans="2:26">
-      <c r="B226" s="6">
+      <c r="B226" s="5">
         <v>44703</v>
       </c>
       <c r="C226" s="1">
@@ -20385,7 +20385,7 @@
       </c>
     </row>
     <row r="227" spans="2:26">
-      <c r="B227" s="6">
+      <c r="B227" s="5">
         <v>44702</v>
       </c>
       <c r="C227" s="1">
@@ -20466,7 +20466,7 @@
       </c>
     </row>
     <row r="228" spans="2:26">
-      <c r="B228" s="6">
+      <c r="B228" s="5">
         <v>44701</v>
       </c>
       <c r="C228" s="1">
@@ -20547,7 +20547,7 @@
       </c>
     </row>
     <row r="229" spans="2:26">
-      <c r="B229" s="6">
+      <c r="B229" s="5">
         <v>44700</v>
       </c>
       <c r="C229" s="1">
@@ -20628,7 +20628,7 @@
       </c>
     </row>
     <row r="230" spans="2:26">
-      <c r="B230" s="6">
+      <c r="B230" s="5">
         <v>44699</v>
       </c>
       <c r="C230" s="1">
@@ -20709,7 +20709,7 @@
       </c>
     </row>
     <row r="231" spans="2:26">
-      <c r="B231" s="6">
+      <c r="B231" s="5">
         <v>44698</v>
       </c>
       <c r="C231" s="1">
@@ -20790,7 +20790,7 @@
       </c>
     </row>
     <row r="232" spans="2:26">
-      <c r="B232" s="6">
+      <c r="B232" s="5">
         <v>44697</v>
       </c>
       <c r="C232" s="1">
@@ -20871,7 +20871,7 @@
       </c>
     </row>
     <row r="233" spans="2:26">
-      <c r="B233" s="6">
+      <c r="B233" s="5">
         <v>44696</v>
       </c>
       <c r="C233" s="1">
@@ -20952,7 +20952,7 @@
       </c>
     </row>
     <row r="234" spans="2:26">
-      <c r="B234" s="6">
+      <c r="B234" s="5">
         <v>44695</v>
       </c>
       <c r="C234" s="1">
@@ -21033,7 +21033,7 @@
       </c>
     </row>
     <row r="235" spans="2:26">
-      <c r="B235" s="6">
+      <c r="B235" s="5">
         <v>44694</v>
       </c>
       <c r="C235" s="1">
@@ -21114,7 +21114,7 @@
       </c>
     </row>
     <row r="236" spans="2:26">
-      <c r="B236" s="6">
+      <c r="B236" s="5">
         <v>44693</v>
       </c>
       <c r="C236" s="1">
@@ -21195,7 +21195,7 @@
       </c>
     </row>
     <row r="237" spans="2:26">
-      <c r="B237" s="6">
+      <c r="B237" s="5">
         <v>44692</v>
       </c>
       <c r="C237" s="1">
@@ -21276,7 +21276,7 @@
       </c>
     </row>
     <row r="238" spans="2:26">
-      <c r="B238" s="6">
+      <c r="B238" s="5">
         <v>44691</v>
       </c>
       <c r="C238" s="1">
@@ -21357,7 +21357,7 @@
       </c>
     </row>
     <row r="239" spans="2:26">
-      <c r="B239" s="6">
+      <c r="B239" s="5">
         <v>44690</v>
       </c>
       <c r="C239" s="1">
@@ -21438,7 +21438,7 @@
       </c>
     </row>
     <row r="240" spans="2:26">
-      <c r="B240" s="6">
+      <c r="B240" s="5">
         <v>44689</v>
       </c>
       <c r="C240" s="1">
@@ -21519,7 +21519,7 @@
       </c>
     </row>
     <row r="241" spans="2:26">
-      <c r="B241" s="6">
+      <c r="B241" s="5">
         <v>44688</v>
       </c>
       <c r="C241" s="1">
@@ -21600,7 +21600,7 @@
       </c>
     </row>
     <row r="242" spans="2:26">
-      <c r="B242" s="6">
+      <c r="B242" s="5">
         <v>44687</v>
       </c>
       <c r="C242" s="1">
@@ -21681,7 +21681,7 @@
       </c>
     </row>
     <row r="243" spans="2:26">
-      <c r="B243" s="6">
+      <c r="B243" s="5">
         <v>44686</v>
       </c>
       <c r="C243" s="1">
@@ -21762,7 +21762,7 @@
       </c>
     </row>
     <row r="244" spans="2:26">
-      <c r="B244" s="6">
+      <c r="B244" s="5">
         <v>44685</v>
       </c>
       <c r="C244" s="1">
@@ -21843,7 +21843,7 @@
       </c>
     </row>
     <row r="245" spans="2:26">
-      <c r="B245" s="6">
+      <c r="B245" s="5">
         <v>44684</v>
       </c>
       <c r="C245" s="1">
@@ -21924,7 +21924,7 @@
       </c>
     </row>
     <row r="246" spans="2:26">
-      <c r="B246" s="6">
+      <c r="B246" s="5">
         <v>44683</v>
       </c>
       <c r="C246" s="1">
@@ -22005,7 +22005,7 @@
       </c>
     </row>
     <row r="247" spans="2:26">
-      <c r="B247" s="6">
+      <c r="B247" s="5">
         <v>44682</v>
       </c>
       <c r="C247" s="1">
@@ -22086,7 +22086,7 @@
       </c>
     </row>
     <row r="248" spans="2:26">
-      <c r="B248" s="6">
+      <c r="B248" s="5">
         <v>44681</v>
       </c>
       <c r="C248" s="1">
@@ -22167,7 +22167,7 @@
       </c>
     </row>
     <row r="249" spans="2:26">
-      <c r="B249" s="6">
+      <c r="B249" s="5">
         <v>44680</v>
       </c>
       <c r="C249" s="1">
@@ -22248,7 +22248,7 @@
       </c>
     </row>
     <row r="250" spans="2:26">
-      <c r="B250" s="6">
+      <c r="B250" s="5">
         <v>44679</v>
       </c>
       <c r="C250" s="1">
@@ -22329,7 +22329,7 @@
       </c>
     </row>
     <row r="251" spans="2:26">
-      <c r="B251" s="6">
+      <c r="B251" s="5">
         <v>44678</v>
       </c>
       <c r="C251" s="1">
@@ -22410,7 +22410,7 @@
       </c>
     </row>
     <row r="252" spans="2:26">
-      <c r="B252" s="6">
+      <c r="B252" s="5">
         <v>44677</v>
       </c>
       <c r="C252" s="1">
@@ -22491,7 +22491,7 @@
       </c>
     </row>
     <row r="253" spans="2:26">
-      <c r="B253" s="6">
+      <c r="B253" s="5">
         <v>44676</v>
       </c>
       <c r="C253" s="1">
@@ -22572,7 +22572,7 @@
       </c>
     </row>
     <row r="254" spans="2:26">
-      <c r="B254" s="6">
+      <c r="B254" s="5">
         <v>44675</v>
       </c>
       <c r="C254" s="1">
@@ -22653,7 +22653,7 @@
       </c>
     </row>
     <row r="255" spans="2:26">
-      <c r="B255" s="6">
+      <c r="B255" s="5">
         <v>44674</v>
       </c>
       <c r="C255" s="1">
@@ -22734,7 +22734,7 @@
       </c>
     </row>
     <row r="256" spans="2:26">
-      <c r="B256" s="6">
+      <c r="B256" s="5">
         <v>44673</v>
       </c>
       <c r="C256" s="1">
@@ -22815,7 +22815,7 @@
       </c>
     </row>
     <row r="257" spans="2:26">
-      <c r="B257" s="6">
+      <c r="B257" s="5">
         <v>44672</v>
       </c>
       <c r="C257" s="1">
@@ -22896,7 +22896,7 @@
       </c>
     </row>
     <row r="258" spans="2:26">
-      <c r="B258" s="6">
+      <c r="B258" s="5">
         <v>44671</v>
       </c>
       <c r="C258" s="1">
@@ -22977,7 +22977,7 @@
       </c>
     </row>
     <row r="259" spans="2:26">
-      <c r="B259" s="6">
+      <c r="B259" s="5">
         <v>44670</v>
       </c>
       <c r="C259" s="1">
@@ -23058,7 +23058,7 @@
       </c>
     </row>
     <row r="260" spans="2:26">
-      <c r="B260" s="6">
+      <c r="B260" s="5">
         <v>44669</v>
       </c>
       <c r="C260" s="1">
@@ -23139,7 +23139,7 @@
       </c>
     </row>
     <row r="261" spans="2:26">
-      <c r="B261" s="6">
+      <c r="B261" s="5">
         <v>44668</v>
       </c>
       <c r="C261" s="1">
@@ -23220,7 +23220,7 @@
       </c>
     </row>
     <row r="262" spans="2:26">
-      <c r="B262" s="6">
+      <c r="B262" s="5">
         <v>44667</v>
       </c>
       <c r="C262" s="1">
@@ -23301,7 +23301,7 @@
       </c>
     </row>
     <row r="263" spans="2:26">
-      <c r="B263" s="6">
+      <c r="B263" s="5">
         <v>44666</v>
       </c>
       <c r="C263" s="1">
@@ -23382,7 +23382,7 @@
       </c>
     </row>
     <row r="264" spans="2:26">
-      <c r="B264" s="6">
+      <c r="B264" s="5">
         <v>44665</v>
       </c>
       <c r="C264" s="1">
@@ -23463,7 +23463,7 @@
       </c>
     </row>
     <row r="265" spans="2:26">
-      <c r="B265" s="6">
+      <c r="B265" s="5">
         <v>44664</v>
       </c>
       <c r="C265" s="1">
@@ -23544,7 +23544,7 @@
       </c>
     </row>
     <row r="266" spans="2:26">
-      <c r="B266" s="6">
+      <c r="B266" s="5">
         <v>44663</v>
       </c>
       <c r="C266" s="1">
@@ -23625,7 +23625,7 @@
       </c>
     </row>
     <row r="267" spans="2:26">
-      <c r="B267" s="6">
+      <c r="B267" s="5">
         <v>44662</v>
       </c>
       <c r="C267" s="1">
@@ -23706,7 +23706,7 @@
       </c>
     </row>
     <row r="268" spans="2:26">
-      <c r="B268" s="6">
+      <c r="B268" s="5">
         <v>44661</v>
       </c>
       <c r="C268" s="1">
@@ -23787,7 +23787,7 @@
       </c>
     </row>
     <row r="269" spans="2:26">
-      <c r="B269" s="6">
+      <c r="B269" s="5">
         <v>44660</v>
       </c>
       <c r="C269" s="1">
@@ -23868,7 +23868,7 @@
       </c>
     </row>
     <row r="270" spans="2:26">
-      <c r="B270" s="6">
+      <c r="B270" s="5">
         <v>44659</v>
       </c>
       <c r="C270" s="1">
@@ -23949,7 +23949,7 @@
       </c>
     </row>
     <row r="271" spans="2:26">
-      <c r="B271" s="6">
+      <c r="B271" s="5">
         <v>44658</v>
       </c>
       <c r="C271" s="1">
@@ -24030,7 +24030,7 @@
       </c>
     </row>
     <row r="272" spans="2:26">
-      <c r="B272" s="6">
+      <c r="B272" s="5">
         <v>44657</v>
       </c>
       <c r="C272" s="1">
@@ -24111,7 +24111,7 @@
       </c>
     </row>
     <row r="273" spans="2:26">
-      <c r="B273" s="6">
+      <c r="B273" s="5">
         <v>44656</v>
       </c>
       <c r="C273" s="1">
@@ -24192,7 +24192,7 @@
       </c>
     </row>
     <row r="274" spans="2:26">
-      <c r="B274" s="6">
+      <c r="B274" s="5">
         <v>44655</v>
       </c>
       <c r="C274" s="1">
@@ -24273,7 +24273,7 @@
       </c>
     </row>
     <row r="275" spans="2:26">
-      <c r="B275" s="6">
+      <c r="B275" s="5">
         <v>44654</v>
       </c>
       <c r="C275" s="1">
@@ -24354,7 +24354,7 @@
       </c>
     </row>
     <row r="276" spans="2:26">
-      <c r="B276" s="6">
+      <c r="B276" s="5">
         <v>44653</v>
       </c>
       <c r="C276" s="1">
@@ -24435,7 +24435,7 @@
       </c>
     </row>
     <row r="277" spans="2:26">
-      <c r="B277" s="6">
+      <c r="B277" s="5">
         <v>44652</v>
       </c>
       <c r="C277" s="1">
@@ -24516,7 +24516,7 @@
       </c>
     </row>
     <row r="278" spans="2:26">
-      <c r="B278" s="6">
+      <c r="B278" s="5">
         <v>44651</v>
       </c>
       <c r="C278" s="1">
@@ -24597,7 +24597,7 @@
       </c>
     </row>
     <row r="279" spans="2:26">
-      <c r="B279" s="6">
+      <c r="B279" s="5">
         <v>44650</v>
       </c>
       <c r="C279" s="1">
@@ -24678,7 +24678,7 @@
       </c>
     </row>
     <row r="280" spans="2:26">
-      <c r="B280" s="6">
+      <c r="B280" s="5">
         <v>44649</v>
       </c>
       <c r="C280" s="1">
@@ -24759,7 +24759,7 @@
       </c>
     </row>
     <row r="281" spans="2:26">
-      <c r="B281" s="6">
+      <c r="B281" s="5">
         <v>44648</v>
       </c>
       <c r="C281" s="1">
@@ -24840,7 +24840,7 @@
       </c>
     </row>
     <row r="282" spans="2:26">
-      <c r="B282" s="6">
+      <c r="B282" s="5">
         <v>44647</v>
       </c>
       <c r="C282" s="1">
@@ -24921,7 +24921,7 @@
       </c>
     </row>
     <row r="283" spans="2:26">
-      <c r="B283" s="6">
+      <c r="B283" s="5">
         <v>44646</v>
       </c>
       <c r="C283" s="1">
@@ -25002,7 +25002,7 @@
       </c>
     </row>
     <row r="284" spans="2:26">
-      <c r="B284" s="6">
+      <c r="B284" s="5">
         <v>44645</v>
       </c>
       <c r="C284" s="1">
@@ -25083,7 +25083,7 @@
       </c>
     </row>
     <row r="285" spans="2:26">
-      <c r="B285" s="6">
+      <c r="B285" s="5">
         <v>44644</v>
       </c>
       <c r="C285" s="1">
@@ -25164,7 +25164,7 @@
       </c>
     </row>
     <row r="286" spans="2:26">
-      <c r="B286" s="6">
+      <c r="B286" s="5">
         <v>44643</v>
       </c>
       <c r="C286" s="1">
@@ -25245,7 +25245,7 @@
       </c>
     </row>
     <row r="287" spans="2:26">
-      <c r="B287" s="6">
+      <c r="B287" s="5">
         <v>44642</v>
       </c>
       <c r="C287" s="1">
@@ -25326,7 +25326,7 @@
       </c>
     </row>
     <row r="288" spans="2:26">
-      <c r="B288" s="6">
+      <c r="B288" s="5">
         <v>44641</v>
       </c>
       <c r="C288" s="1">
@@ -25407,7 +25407,7 @@
       </c>
     </row>
     <row r="289" spans="2:26">
-      <c r="B289" s="6">
+      <c r="B289" s="5">
         <v>44640</v>
       </c>
       <c r="C289" s="1">
@@ -25488,7 +25488,7 @@
       </c>
     </row>
     <row r="290" spans="2:26">
-      <c r="B290" s="6">
+      <c r="B290" s="5">
         <v>44639</v>
       </c>
       <c r="C290" s="1">
@@ -25569,7 +25569,7 @@
       </c>
     </row>
     <row r="291" spans="2:26">
-      <c r="B291" s="6">
+      <c r="B291" s="5">
         <v>44638</v>
       </c>
       <c r="C291" s="1">
@@ -25650,7 +25650,7 @@
       </c>
     </row>
     <row r="292" spans="2:26">
-      <c r="B292" s="6">
+      <c r="B292" s="5">
         <v>44637</v>
       </c>
       <c r="C292" s="1">
@@ -25731,7 +25731,7 @@
       </c>
     </row>
     <row r="293" spans="2:26">
-      <c r="B293" s="6">
+      <c r="B293" s="5">
         <v>44636</v>
       </c>
       <c r="C293" s="1">
@@ -25812,7 +25812,7 @@
       </c>
     </row>
     <row r="294" spans="2:26">
-      <c r="B294" s="6">
+      <c r="B294" s="5">
         <v>44635</v>
       </c>
       <c r="C294" s="1">
@@ -25893,7 +25893,7 @@
       </c>
     </row>
     <row r="295" spans="2:26">
-      <c r="B295" s="6">
+      <c r="B295" s="5">
         <v>44634</v>
       </c>
       <c r="C295" s="1">
@@ -25974,7 +25974,7 @@
       </c>
     </row>
     <row r="296" spans="2:26">
-      <c r="B296" s="6">
+      <c r="B296" s="5">
         <v>44633</v>
       </c>
       <c r="C296" s="1">
@@ -26055,7 +26055,7 @@
       </c>
     </row>
     <row r="297" spans="2:26">
-      <c r="B297" s="6">
+      <c r="B297" s="5">
         <v>44632</v>
       </c>
       <c r="C297" s="1">
@@ -26136,7 +26136,7 @@
       </c>
     </row>
     <row r="298" spans="2:26">
-      <c r="B298" s="6">
+      <c r="B298" s="5">
         <v>44631</v>
       </c>
       <c r="C298" s="1">
@@ -26217,7 +26217,7 @@
       </c>
     </row>
     <row r="299" spans="2:26">
-      <c r="B299" s="6">
+      <c r="B299" s="5">
         <v>44630</v>
       </c>
       <c r="C299" s="1">
@@ -26298,7 +26298,7 @@
       </c>
     </row>
     <row r="300" spans="2:26">
-      <c r="B300" s="6">
+      <c r="B300" s="5">
         <v>44629</v>
       </c>
       <c r="C300" s="1">
@@ -26379,7 +26379,7 @@
       </c>
     </row>
     <row r="301" spans="2:26">
-      <c r="B301" s="6">
+      <c r="B301" s="5">
         <v>44628</v>
       </c>
       <c r="C301" s="1">
@@ -26460,7 +26460,7 @@
       </c>
     </row>
     <row r="302" spans="2:26">
-      <c r="B302" s="6">
+      <c r="B302" s="5">
         <v>44627</v>
       </c>
       <c r="C302" s="1">
@@ -26541,7 +26541,7 @@
       </c>
     </row>
     <row r="303" spans="2:26">
-      <c r="B303" s="6">
+      <c r="B303" s="5">
         <v>44626</v>
       </c>
       <c r="C303" s="1">
@@ -26622,7 +26622,7 @@
       </c>
     </row>
     <row r="304" spans="2:26">
-      <c r="B304" s="6">
+      <c r="B304" s="5">
         <v>44625</v>
       </c>
       <c r="C304" s="1">
@@ -26703,7 +26703,7 @@
       </c>
     </row>
     <row r="305" spans="2:26">
-      <c r="B305" s="6">
+      <c r="B305" s="5">
         <v>44624</v>
       </c>
       <c r="C305" s="1">
@@ -26784,7 +26784,7 @@
       </c>
     </row>
     <row r="306" spans="2:26">
-      <c r="B306" s="6">
+      <c r="B306" s="5">
         <v>44623</v>
       </c>
       <c r="C306" s="1">
@@ -26865,7 +26865,7 @@
       </c>
     </row>
     <row r="307" spans="2:26">
-      <c r="B307" s="6">
+      <c r="B307" s="5">
         <v>44622</v>
       </c>
       <c r="C307" s="1">
@@ -26946,7 +26946,7 @@
       </c>
     </row>
     <row r="308" spans="2:26">
-      <c r="B308" s="6">
+      <c r="B308" s="5">
         <v>44621</v>
       </c>
       <c r="C308" s="1">
@@ -27027,7 +27027,7 @@
       </c>
     </row>
     <row r="309" spans="2:26">
-      <c r="B309" s="6">
+      <c r="B309" s="5">
         <v>44620</v>
       </c>
       <c r="C309" s="1">
@@ -27108,7 +27108,7 @@
       </c>
     </row>
     <row r="310" spans="2:26">
-      <c r="B310" s="6">
+      <c r="B310" s="5">
         <v>44619</v>
       </c>
       <c r="C310" s="1">
@@ -27189,7 +27189,7 @@
       </c>
     </row>
     <row r="311" spans="2:26">
-      <c r="B311" s="6">
+      <c r="B311" s="5">
         <v>44618</v>
       </c>
       <c r="C311" s="1">
@@ -27270,7 +27270,7 @@
       </c>
     </row>
     <row r="312" spans="2:26">
-      <c r="B312" s="6">
+      <c r="B312" s="5">
         <v>44617</v>
       </c>
       <c r="C312" s="1">
@@ -27351,7 +27351,7 @@
       </c>
     </row>
     <row r="313" spans="2:26">
-      <c r="B313" s="6">
+      <c r="B313" s="5">
         <v>44616</v>
       </c>
       <c r="C313" s="1">
@@ -27432,7 +27432,7 @@
       </c>
     </row>
     <row r="314" spans="2:26">
-      <c r="B314" s="6">
+      <c r="B314" s="5">
         <v>44615</v>
       </c>
       <c r="C314" s="1">
@@ -27513,7 +27513,7 @@
       </c>
     </row>
     <row r="315" spans="2:26">
-      <c r="B315" s="6">
+      <c r="B315" s="5">
         <v>44614</v>
       </c>
       <c r="C315" s="1">
@@ -27594,7 +27594,7 @@
       </c>
     </row>
     <row r="316" spans="2:26">
-      <c r="B316" s="6">
+      <c r="B316" s="5">
         <v>44613</v>
       </c>
       <c r="C316" s="1">
@@ -27675,7 +27675,7 @@
       </c>
     </row>
     <row r="317" spans="2:26">
-      <c r="B317" s="6">
+      <c r="B317" s="5">
         <v>44612</v>
       </c>
       <c r="C317" s="1">
@@ -27756,7 +27756,7 @@
       </c>
     </row>
     <row r="318" spans="2:26">
-      <c r="B318" s="6">
+      <c r="B318" s="5">
         <v>44611</v>
       </c>
       <c r="C318" s="1">
@@ -27837,7 +27837,7 @@
       </c>
     </row>
     <row r="319" spans="2:26">
-      <c r="B319" s="6">
+      <c r="B319" s="5">
         <v>44610</v>
       </c>
       <c r="C319" s="1">
@@ -27918,7 +27918,7 @@
       </c>
     </row>
     <row r="320" spans="2:26">
-      <c r="B320" s="6">
+      <c r="B320" s="5">
         <v>44609</v>
       </c>
       <c r="C320" s="1">
@@ -27999,7 +27999,7 @@
       </c>
     </row>
     <row r="321" spans="2:26">
-      <c r="B321" s="6">
+      <c r="B321" s="5">
         <v>44608</v>
       </c>
       <c r="C321" s="1">
@@ -28080,7 +28080,7 @@
       </c>
     </row>
     <row r="322" spans="2:26">
-      <c r="B322" s="6">
+      <c r="B322" s="5">
         <v>44607</v>
       </c>
       <c r="C322" s="1">
@@ -28161,7 +28161,7 @@
       </c>
     </row>
     <row r="323" spans="2:26">
-      <c r="B323" s="6">
+      <c r="B323" s="5">
         <v>44606</v>
       </c>
       <c r="C323" s="1">
@@ -28242,7 +28242,7 @@
       </c>
     </row>
     <row r="324" spans="2:26">
-      <c r="B324" s="6">
+      <c r="B324" s="5">
         <v>44605</v>
       </c>
       <c r="C324" s="1">
@@ -28255,7 +28255,7 @@
         <v>277471</v>
       </c>
       <c r="F324" s="1">
-        <v>3249</v>
+        <v>9249</v>
       </c>
       <c r="G324" s="1">
         <v>1</v>
@@ -28319,11 +28319,11 @@
       </c>
       <c r="Z324" s="2">
         <f t="shared" ref="Z324:Z361" si="40">F324/E324</f>
-        <v>0.0117093317860245</v>
+        <v>0.0333332132006588</v>
       </c>
     </row>
     <row r="325" spans="2:26">
-      <c r="B325" s="6">
+      <c r="B325" s="5">
         <v>44604</v>
       </c>
       <c r="C325" s="1">
@@ -28404,7 +28404,7 @@
       </c>
     </row>
     <row r="326" spans="2:26">
-      <c r="B326" s="6">
+      <c r="B326" s="5">
         <v>44603</v>
       </c>
       <c r="C326" s="1">
@@ -28485,7 +28485,7 @@
       </c>
     </row>
     <row r="327" spans="2:26">
-      <c r="B327" s="6">
+      <c r="B327" s="5">
         <v>44602</v>
       </c>
       <c r="C327" s="1">
@@ -28566,7 +28566,7 @@
       </c>
     </row>
     <row r="328" spans="2:26">
-      <c r="B328" s="6">
+      <c r="B328" s="5">
         <v>44601</v>
       </c>
       <c r="C328" s="1">
@@ -28647,7 +28647,7 @@
       </c>
     </row>
     <row r="329" spans="2:26">
-      <c r="B329" s="6">
+      <c r="B329" s="5">
         <v>44600</v>
       </c>
       <c r="C329" s="1">
@@ -28728,7 +28728,7 @@
       </c>
     </row>
     <row r="330" spans="2:26">
-      <c r="B330" s="6">
+      <c r="B330" s="5">
         <v>44599</v>
       </c>
       <c r="C330" s="1">
@@ -28809,7 +28809,7 @@
       </c>
     </row>
     <row r="331" spans="2:26">
-      <c r="B331" s="6">
+      <c r="B331" s="5">
         <v>44598</v>
       </c>
       <c r="C331" s="1">
@@ -28890,7 +28890,7 @@
       </c>
     </row>
     <row r="332" spans="2:26">
-      <c r="B332" s="6">
+      <c r="B332" s="5">
         <v>44597</v>
       </c>
       <c r="C332" s="1">
@@ -28971,7 +28971,7 @@
       </c>
     </row>
     <row r="333" spans="2:26">
-      <c r="B333" s="6">
+      <c r="B333" s="5">
         <v>44596</v>
       </c>
       <c r="C333" s="1">
@@ -29052,7 +29052,7 @@
       </c>
     </row>
     <row r="334" spans="2:26">
-      <c r="B334" s="6">
+      <c r="B334" s="5">
         <v>44595</v>
       </c>
       <c r="C334" s="1">
@@ -29133,7 +29133,7 @@
       </c>
     </row>
     <row r="335" spans="2:26">
-      <c r="B335" s="6">
+      <c r="B335" s="5">
         <v>44594</v>
       </c>
       <c r="C335" s="1">
@@ -29214,7 +29214,7 @@
       </c>
     </row>
     <row r="336" spans="2:26">
-      <c r="B336" s="6">
+      <c r="B336" s="5">
         <v>44593</v>
       </c>
       <c r="C336" s="1">
@@ -29295,7 +29295,7 @@
       </c>
     </row>
     <row r="337" spans="2:26">
-      <c r="B337" s="6">
+      <c r="B337" s="5">
         <v>44592</v>
       </c>
       <c r="C337" s="1">
@@ -29376,7 +29376,7 @@
       </c>
     </row>
     <row r="338" spans="2:26">
-      <c r="B338" s="6">
+      <c r="B338" s="5">
         <v>44591</v>
       </c>
       <c r="C338" s="1">
@@ -29457,7 +29457,7 @@
       </c>
     </row>
     <row r="339" spans="2:26">
-      <c r="B339" s="6">
+      <c r="B339" s="5">
         <v>44590</v>
       </c>
       <c r="C339" s="1">
@@ -29538,7 +29538,7 @@
       </c>
     </row>
     <row r="340" spans="2:26">
-      <c r="B340" s="6">
+      <c r="B340" s="5">
         <v>44589</v>
       </c>
       <c r="C340" s="1">
@@ -29619,7 +29619,7 @@
       </c>
     </row>
     <row r="341" spans="2:26">
-      <c r="B341" s="6">
+      <c r="B341" s="5">
         <v>44588</v>
       </c>
       <c r="C341" s="1">
@@ -29700,7 +29700,7 @@
       </c>
     </row>
     <row r="342" spans="2:26">
-      <c r="B342" s="6">
+      <c r="B342" s="5">
         <v>44587</v>
       </c>
       <c r="C342" s="1">
@@ -29781,7 +29781,7 @@
       </c>
     </row>
     <row r="343" spans="2:26">
-      <c r="B343" s="6">
+      <c r="B343" s="5">
         <v>44586</v>
       </c>
       <c r="C343" s="1">
@@ -29862,7 +29862,7 @@
       </c>
     </row>
     <row r="344" spans="2:26">
-      <c r="B344" s="6">
+      <c r="B344" s="5">
         <v>44585</v>
       </c>
       <c r="C344" s="1">
@@ -29943,7 +29943,7 @@
       </c>
     </row>
     <row r="345" spans="2:26">
-      <c r="B345" s="6">
+      <c r="B345" s="5">
         <v>44584</v>
       </c>
       <c r="C345" s="1">
@@ -30024,7 +30024,7 @@
       </c>
     </row>
     <row r="346" spans="2:26">
-      <c r="B346" s="6">
+      <c r="B346" s="5">
         <v>44583</v>
       </c>
       <c r="C346" s="1">
@@ -30105,7 +30105,7 @@
       </c>
     </row>
     <row r="347" spans="2:26">
-      <c r="B347" s="6">
+      <c r="B347" s="5">
         <v>44582</v>
       </c>
       <c r="C347" s="1">
@@ -30186,7 +30186,7 @@
       </c>
     </row>
     <row r="348" spans="2:26">
-      <c r="B348" s="6">
+      <c r="B348" s="5">
         <v>44581</v>
       </c>
       <c r="C348" s="1">
@@ -30267,7 +30267,7 @@
       </c>
     </row>
     <row r="349" spans="2:26">
-      <c r="B349" s="6">
+      <c r="B349" s="5">
         <v>44580</v>
       </c>
       <c r="C349" s="1">
@@ -30348,7 +30348,7 @@
       </c>
     </row>
     <row r="350" spans="2:26">
-      <c r="B350" s="6">
+      <c r="B350" s="5">
         <v>44579</v>
       </c>
       <c r="C350" s="1">
@@ -30429,7 +30429,7 @@
       </c>
     </row>
     <row r="351" spans="2:26">
-      <c r="B351" s="6">
+      <c r="B351" s="5">
         <v>44578</v>
       </c>
       <c r="C351" s="1">
@@ -30510,7 +30510,7 @@
       </c>
     </row>
     <row r="352" spans="2:26">
-      <c r="B352" s="6">
+      <c r="B352" s="5">
         <v>44577</v>
       </c>
       <c r="C352" s="1">
@@ -30591,7 +30591,7 @@
       </c>
     </row>
     <row r="353" spans="2:26">
-      <c r="B353" s="6">
+      <c r="B353" s="5">
         <v>44576</v>
       </c>
       <c r="C353" s="1">
@@ -30672,7 +30672,7 @@
       </c>
     </row>
     <row r="354" spans="2:26">
-      <c r="B354" s="6">
+      <c r="B354" s="5">
         <v>44575</v>
       </c>
       <c r="C354" s="1">
@@ -30753,7 +30753,7 @@
       </c>
     </row>
     <row r="355" spans="2:26">
-      <c r="B355" s="6">
+      <c r="B355" s="5">
         <v>44574</v>
       </c>
       <c r="C355" s="1">
@@ -30834,7 +30834,7 @@
       </c>
     </row>
     <row r="356" spans="2:26">
-      <c r="B356" s="6">
+      <c r="B356" s="5">
         <v>44573</v>
       </c>
       <c r="C356" s="1">
@@ -30915,7 +30915,7 @@
       </c>
     </row>
     <row r="357" spans="2:26">
-      <c r="B357" s="6">
+      <c r="B357" s="5">
         <v>44572</v>
       </c>
       <c r="C357" s="1">
@@ -30996,7 +30996,7 @@
       </c>
     </row>
     <row r="358" spans="2:26">
-      <c r="B358" s="6">
+      <c r="B358" s="5">
         <v>44571</v>
       </c>
       <c r="C358" s="1">
@@ -31077,7 +31077,7 @@
       </c>
     </row>
     <row r="359" spans="2:26">
-      <c r="B359" s="6">
+      <c r="B359" s="5">
         <v>44570</v>
       </c>
       <c r="C359" s="1">
@@ -31158,7 +31158,7 @@
       </c>
     </row>
     <row r="360" spans="2:26">
-      <c r="B360" s="6">
+      <c r="B360" s="5">
         <v>44569</v>
       </c>
       <c r="C360" s="1">
@@ -31239,7 +31239,7 @@
       </c>
     </row>
     <row r="361" spans="2:26">
-      <c r="B361" s="6">
+      <c r="B361" s="5">
         <v>44568</v>
       </c>
       <c r="C361" s="1">
@@ -31320,7 +31320,7 @@
       </c>
     </row>
     <row r="362" spans="2:16">
-      <c r="B362" s="6"/>
+      <c r="B362" s="5"/>
       <c r="O362" s="1" t="s">
         <v>382</v>
       </c>
@@ -31330,7 +31330,7 @@
       </c>
     </row>
     <row r="363" spans="2:16">
-      <c r="B363" s="6"/>
+      <c r="B363" s="5"/>
       <c r="O363" s="1" t="s">
         <v>383</v>
       </c>
@@ -31340,7 +31340,7 @@
       </c>
     </row>
     <row r="364" spans="2:16">
-      <c r="B364" s="6"/>
+      <c r="B364" s="5"/>
       <c r="O364" s="1" t="s">
         <v>384</v>
       </c>
@@ -31350,7 +31350,7 @@
       </c>
     </row>
     <row r="365" spans="2:16">
-      <c r="B365" s="6"/>
+      <c r="B365" s="5"/>
       <c r="P365" s="2">
         <f>P364-P363</f>
         <v>2.34393439343935</v>
@@ -31432,349 +31432,349 @@
       <c r="Z368" s="3"/>
     </row>
     <row r="369" spans="2:2">
-      <c r="B369" s="6"/>
+      <c r="B369" s="5"/>
     </row>
     <row r="370" spans="2:2">
-      <c r="B370" s="6"/>
+      <c r="B370" s="5"/>
     </row>
     <row r="371" spans="2:2">
-      <c r="B371" s="6"/>
+      <c r="B371" s="5"/>
     </row>
     <row r="372" spans="2:2">
-      <c r="B372" s="6"/>
+      <c r="B372" s="5"/>
     </row>
     <row r="373" spans="2:2">
-      <c r="B373" s="6"/>
+      <c r="B373" s="5"/>
     </row>
     <row r="374" spans="2:2">
-      <c r="B374" s="6"/>
+      <c r="B374" s="5"/>
     </row>
     <row r="375" spans="2:2">
-      <c r="B375" s="6"/>
+      <c r="B375" s="5"/>
     </row>
     <row r="376" spans="2:2">
-      <c r="B376" s="6"/>
+      <c r="B376" s="5"/>
     </row>
     <row r="377" spans="2:2">
-      <c r="B377" s="6"/>
+      <c r="B377" s="5"/>
     </row>
     <row r="378" spans="2:2">
-      <c r="B378" s="6"/>
+      <c r="B378" s="5"/>
     </row>
     <row r="379" spans="2:2">
-      <c r="B379" s="6"/>
+      <c r="B379" s="5"/>
     </row>
     <row r="380" spans="2:2">
-      <c r="B380" s="6"/>
+      <c r="B380" s="5"/>
     </row>
     <row r="381" spans="2:2">
-      <c r="B381" s="6"/>
+      <c r="B381" s="5"/>
     </row>
     <row r="382" spans="2:2">
-      <c r="B382" s="6"/>
+      <c r="B382" s="5"/>
     </row>
     <row r="383" spans="2:2">
-      <c r="B383" s="6"/>
+      <c r="B383" s="5"/>
     </row>
     <row r="384" spans="2:2">
-      <c r="B384" s="6"/>
+      <c r="B384" s="5"/>
     </row>
     <row r="385" spans="2:2">
-      <c r="B385" s="6"/>
+      <c r="B385" s="5"/>
     </row>
     <row r="386" spans="2:2">
-      <c r="B386" s="6"/>
+      <c r="B386" s="5"/>
     </row>
     <row r="387" spans="2:2">
-      <c r="B387" s="6"/>
+      <c r="B387" s="5"/>
     </row>
     <row r="388" spans="2:2">
-      <c r="B388" s="6"/>
+      <c r="B388" s="5"/>
     </row>
     <row r="389" spans="2:2">
-      <c r="B389" s="6"/>
+      <c r="B389" s="5"/>
     </row>
     <row r="390" spans="2:2">
-      <c r="B390" s="6"/>
+      <c r="B390" s="5"/>
     </row>
     <row r="391" spans="2:2">
-      <c r="B391" s="6"/>
+      <c r="B391" s="5"/>
     </row>
     <row r="392" spans="2:2">
-      <c r="B392" s="6"/>
+      <c r="B392" s="5"/>
     </row>
     <row r="393" spans="2:2">
-      <c r="B393" s="6"/>
+      <c r="B393" s="5"/>
     </row>
     <row r="394" spans="2:2">
-      <c r="B394" s="6"/>
+      <c r="B394" s="5"/>
     </row>
     <row r="395" spans="2:2">
-      <c r="B395" s="6"/>
+      <c r="B395" s="5"/>
     </row>
     <row r="396" spans="2:2">
-      <c r="B396" s="6"/>
+      <c r="B396" s="5"/>
     </row>
     <row r="397" spans="2:2">
-      <c r="B397" s="6"/>
+      <c r="B397" s="5"/>
     </row>
     <row r="398" spans="2:2">
-      <c r="B398" s="6"/>
+      <c r="B398" s="5"/>
     </row>
     <row r="399" spans="2:2">
-      <c r="B399" s="6"/>
+      <c r="B399" s="5"/>
     </row>
     <row r="400" spans="2:2">
-      <c r="B400" s="6"/>
+      <c r="B400" s="5"/>
     </row>
     <row r="401" spans="2:2">
-      <c r="B401" s="6"/>
+      <c r="B401" s="5"/>
     </row>
     <row r="402" spans="2:2">
-      <c r="B402" s="6"/>
+      <c r="B402" s="5"/>
     </row>
     <row r="403" spans="2:2">
-      <c r="B403" s="6"/>
+      <c r="B403" s="5"/>
     </row>
     <row r="404" spans="2:2">
-      <c r="B404" s="6"/>
+      <c r="B404" s="5"/>
     </row>
     <row r="405" spans="2:2">
-      <c r="B405" s="6"/>
+      <c r="B405" s="5"/>
     </row>
     <row r="406" spans="2:2">
-      <c r="B406" s="6"/>
+      <c r="B406" s="5"/>
     </row>
     <row r="407" spans="2:2">
-      <c r="B407" s="6"/>
+      <c r="B407" s="5"/>
     </row>
     <row r="408" spans="2:2">
-      <c r="B408" s="6"/>
+      <c r="B408" s="5"/>
     </row>
     <row r="409" spans="2:2">
-      <c r="B409" s="6"/>
+      <c r="B409" s="5"/>
     </row>
     <row r="410" spans="2:2">
-      <c r="B410" s="6"/>
+      <c r="B410" s="5"/>
     </row>
     <row r="411" spans="2:2">
-      <c r="B411" s="6"/>
+      <c r="B411" s="5"/>
     </row>
     <row r="412" spans="2:2">
-      <c r="B412" s="6"/>
+      <c r="B412" s="5"/>
     </row>
     <row r="413" spans="2:2">
-      <c r="B413" s="6"/>
+      <c r="B413" s="5"/>
     </row>
     <row r="414" spans="2:2">
-      <c r="B414" s="6"/>
+      <c r="B414" s="5"/>
     </row>
     <row r="415" spans="2:2">
-      <c r="B415" s="6"/>
+      <c r="B415" s="5"/>
     </row>
     <row r="416" spans="2:2">
-      <c r="B416" s="6"/>
+      <c r="B416" s="5"/>
     </row>
     <row r="417" spans="2:2">
-      <c r="B417" s="6"/>
+      <c r="B417" s="5"/>
     </row>
     <row r="418" spans="2:2">
-      <c r="B418" s="6"/>
+      <c r="B418" s="5"/>
     </row>
     <row r="419" spans="2:2">
-      <c r="B419" s="6"/>
+      <c r="B419" s="5"/>
     </row>
     <row r="420" spans="2:2">
-      <c r="B420" s="6"/>
+      <c r="B420" s="5"/>
     </row>
     <row r="421" spans="2:2">
-      <c r="B421" s="6"/>
+      <c r="B421" s="5"/>
     </row>
     <row r="422" spans="2:2">
-      <c r="B422" s="6"/>
+      <c r="B422" s="5"/>
     </row>
     <row r="423" spans="2:2">
-      <c r="B423" s="6"/>
+      <c r="B423" s="5"/>
     </row>
     <row r="424" spans="2:2">
-      <c r="B424" s="6"/>
+      <c r="B424" s="5"/>
     </row>
     <row r="425" spans="2:2">
-      <c r="B425" s="6"/>
+      <c r="B425" s="5"/>
     </row>
     <row r="426" spans="2:2">
-      <c r="B426" s="6"/>
+      <c r="B426" s="5"/>
     </row>
     <row r="427" spans="2:2">
-      <c r="B427" s="6"/>
+      <c r="B427" s="5"/>
     </row>
     <row r="428" spans="2:2">
-      <c r="B428" s="6"/>
+      <c r="B428" s="5"/>
     </row>
     <row r="429" spans="2:2">
-      <c r="B429" s="6"/>
+      <c r="B429" s="5"/>
     </row>
     <row r="430" spans="2:2">
-      <c r="B430" s="6"/>
+      <c r="B430" s="5"/>
     </row>
     <row r="431" spans="2:2">
-      <c r="B431" s="6"/>
+      <c r="B431" s="5"/>
     </row>
     <row r="432" spans="2:2">
-      <c r="B432" s="6"/>
+      <c r="B432" s="5"/>
     </row>
     <row r="433" spans="2:2">
-      <c r="B433" s="6"/>
+      <c r="B433" s="5"/>
     </row>
     <row r="434" spans="2:2">
-      <c r="B434" s="6"/>
+      <c r="B434" s="5"/>
     </row>
     <row r="435" spans="2:2">
-      <c r="B435" s="6"/>
+      <c r="B435" s="5"/>
     </row>
     <row r="436" spans="2:2">
-      <c r="B436" s="6"/>
+      <c r="B436" s="5"/>
     </row>
     <row r="437" spans="2:2">
-      <c r="B437" s="6"/>
+      <c r="B437" s="5"/>
     </row>
     <row r="438" spans="2:2">
-      <c r="B438" s="6"/>
+      <c r="B438" s="5"/>
     </row>
     <row r="439" spans="2:2">
-      <c r="B439" s="6"/>
+      <c r="B439" s="5"/>
     </row>
     <row r="440" spans="2:2">
-      <c r="B440" s="6"/>
+      <c r="B440" s="5"/>
     </row>
     <row r="441" spans="2:2">
-      <c r="B441" s="6"/>
+      <c r="B441" s="5"/>
     </row>
     <row r="442" spans="2:2">
-      <c r="B442" s="6"/>
+      <c r="B442" s="5"/>
     </row>
     <row r="443" spans="2:2">
-      <c r="B443" s="6"/>
+      <c r="B443" s="5"/>
     </row>
     <row r="444" spans="2:2">
-      <c r="B444" s="6"/>
+      <c r="B444" s="5"/>
     </row>
     <row r="445" spans="2:2">
-      <c r="B445" s="6"/>
+      <c r="B445" s="5"/>
     </row>
     <row r="446" spans="2:2">
-      <c r="B446" s="6"/>
+      <c r="B446" s="5"/>
     </row>
     <row r="447" spans="2:2">
-      <c r="B447" s="6"/>
+      <c r="B447" s="5"/>
     </row>
     <row r="448" spans="2:2">
-      <c r="B448" s="6"/>
+      <c r="B448" s="5"/>
     </row>
     <row r="449" spans="2:2">
-      <c r="B449" s="6"/>
+      <c r="B449" s="5"/>
     </row>
     <row r="450" spans="2:2">
-      <c r="B450" s="6"/>
+      <c r="B450" s="5"/>
     </row>
     <row r="451" spans="2:2">
-      <c r="B451" s="6"/>
+      <c r="B451" s="5"/>
     </row>
     <row r="452" spans="2:2">
-      <c r="B452" s="6"/>
+      <c r="B452" s="5"/>
     </row>
     <row r="453" spans="2:2">
-      <c r="B453" s="6"/>
+      <c r="B453" s="5"/>
     </row>
     <row r="454" spans="2:2">
-      <c r="B454" s="6"/>
+      <c r="B454" s="5"/>
     </row>
     <row r="455" spans="2:2">
-      <c r="B455" s="6"/>
+      <c r="B455" s="5"/>
     </row>
     <row r="456" spans="2:2">
-      <c r="B456" s="6"/>
+      <c r="B456" s="5"/>
     </row>
     <row r="457" spans="2:2">
-      <c r="B457" s="6"/>
+      <c r="B457" s="5"/>
     </row>
     <row r="458" spans="2:2">
-      <c r="B458" s="6"/>
+      <c r="B458" s="5"/>
     </row>
     <row r="459" spans="2:2">
-      <c r="B459" s="6"/>
+      <c r="B459" s="5"/>
     </row>
     <row r="460" spans="2:2">
-      <c r="B460" s="6"/>
+      <c r="B460" s="5"/>
     </row>
     <row r="461" spans="2:2">
-      <c r="B461" s="6"/>
+      <c r="B461" s="5"/>
     </row>
     <row r="462" spans="2:2">
-      <c r="B462" s="6"/>
+      <c r="B462" s="5"/>
     </row>
     <row r="463" spans="2:2">
-      <c r="B463" s="6"/>
+      <c r="B463" s="5"/>
     </row>
     <row r="464" spans="2:2">
-      <c r="B464" s="6"/>
+      <c r="B464" s="5"/>
     </row>
     <row r="465" spans="2:2">
-      <c r="B465" s="6"/>
+      <c r="B465" s="5"/>
     </row>
     <row r="466" spans="2:2">
-      <c r="B466" s="6"/>
+      <c r="B466" s="5"/>
     </row>
     <row r="467" spans="2:2">
-      <c r="B467" s="6"/>
+      <c r="B467" s="5"/>
     </row>
     <row r="468" spans="2:2">
-      <c r="B468" s="6"/>
+      <c r="B468" s="5"/>
     </row>
     <row r="469" spans="2:2">
-      <c r="B469" s="6"/>
+      <c r="B469" s="5"/>
     </row>
     <row r="470" spans="2:2">
-      <c r="B470" s="6"/>
+      <c r="B470" s="5"/>
     </row>
     <row r="471" spans="2:2">
-      <c r="B471" s="6"/>
+      <c r="B471" s="5"/>
     </row>
     <row r="472" spans="2:2">
-      <c r="B472" s="6"/>
+      <c r="B472" s="5"/>
     </row>
     <row r="473" spans="2:2">
-      <c r="B473" s="6"/>
+      <c r="B473" s="5"/>
     </row>
     <row r="474" spans="2:2">
-      <c r="B474" s="6"/>
+      <c r="B474" s="5"/>
     </row>
     <row r="475" spans="2:2">
-      <c r="B475" s="6"/>
+      <c r="B475" s="5"/>
     </row>
     <row r="476" spans="2:2">
-      <c r="B476" s="6"/>
+      <c r="B476" s="5"/>
     </row>
     <row r="477" spans="2:2">
-      <c r="B477" s="6"/>
+      <c r="B477" s="5"/>
     </row>
     <row r="478" spans="2:2">
-      <c r="B478" s="6"/>
+      <c r="B478" s="5"/>
     </row>
     <row r="479" spans="2:2">
-      <c r="B479" s="6"/>
+      <c r="B479" s="5"/>
     </row>
     <row r="480" spans="2:2">
-      <c r="B480" s="6"/>
+      <c r="B480" s="5"/>
     </row>
     <row r="481" spans="2:2">
-      <c r="B481" s="6"/>
+      <c r="B481" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:M1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
